--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Ordner Wildner</t>
+  </si>
+  <si>
+    <t>Spende Stadt Vereinsförderung immer bis Juni beantragen</t>
+  </si>
+  <si>
+    <t>Mitgleidsbeitrak J.Klink 2018+2019</t>
   </si>
 </sst>
 </file>
@@ -543,57 +549,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="145">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="135">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2457,9 +2413,9 @@
   </sheetPr>
   <dimension ref="A1:IK169"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2640,9 +2596,15 @@
     <row r="8" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="17">
+        <v>60</v>
+      </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -3917,7 +3879,9 @@
       <c r="G104" s="18"/>
       <c r="H104" s="18"/>
       <c r="I104" s="19"/>
-      <c r="J104" s="2"/>
+      <c r="J104" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="K104" s="2"/>
     </row>
     <row r="105" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3929,7 +3893,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>214.34000000000106</v>
+        <v>274.34000000000106</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
@@ -3972,7 +3936,7 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>209.74000000000106</v>
+        <v>269.74000000000103</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
@@ -4014,7 +3978,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>4874.8200000000106</v>
+        <v>4934.8200000000106</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -4809,232 +4773,232 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D6:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5">
-    <cfRule type="cellIs" dxfId="144" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="143" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="142" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="141" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="140" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="139" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="138" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="137" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="136" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="135" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="134" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="133" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="132" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="131" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="130" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="129" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="128" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="127" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="126" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="125" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="124" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="123" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="122" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="121" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="120" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="119" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="118" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="117" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="116" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="115" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="114" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="113" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="112" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="111" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="110" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="109" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="108" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="107" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="106" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="105" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="104" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="103" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="102" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="101" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5065,9 +5029,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35680,447 +35644,447 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E9:E45">
-    <cfRule type="cellIs" dxfId="100" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="99" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="98" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="97" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="95" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="93" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="92" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="91" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="90" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="89" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="88" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="87" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="86" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="85" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="84" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="83" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="82" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="81" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="80" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="79" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="78" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="77" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="76" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="75" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="74" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="73" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="72" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="71" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="70" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="63" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="61" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="60" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="59" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="58" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="57" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="56" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="55" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="54" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="53" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="52" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="51" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="50" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="49" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="48" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="47" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="46" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="45" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="44" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="43" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="42" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="41" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="40" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="39" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="38" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="37" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="36" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="35" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="34" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="33" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="32" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="31" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="30" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="28" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="27" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="26" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="22" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>Mitgleidsbeitrak J.Klink 2018+2019</t>
+  </si>
+  <si>
+    <t>Vereinsförderung Stadt Waldenbuch</t>
+  </si>
+  <si>
+    <t>Taschen Häusle Jubeläum</t>
+  </si>
+  <si>
+    <t>Stadt Wabu  Miete Feb.2018</t>
+  </si>
+  <si>
+    <t>WGV Versicherung</t>
   </si>
 </sst>
 </file>
@@ -549,7 +561,57 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="135">
+  <dxfs count="145">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2414,8 +2476,8 @@
   <dimension ref="A1:IK169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2564,12 +2626,22 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="15">
+        <v>43489</v>
+      </c>
+      <c r="B6" s="62">
+        <v>3</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="51"/>
-      <c r="F6" s="18"/>
+      <c r="F6" s="18">
+        <v>1150</v>
+      </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -2579,11 +2651,21 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="17"/>
+      <c r="A7" s="15">
+        <v>43500</v>
+      </c>
+      <c r="B7" s="62">
+        <v>4</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="17">
+        <v>60</v>
+      </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -2596,15 +2678,9 @@
     <row r="8" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="17">
-        <v>60</v>
-      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -3897,7 +3973,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>1812.080000000009</v>
+        <v>2962.080000000009</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -3940,7 +4016,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>1455.2900000000091</v>
+        <v>2145.3600000000088</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -3948,7 +4024,7 @@
       </c>
       <c r="H107" s="28">
         <f>H105+Ausgaben!I170</f>
-        <v>260.20000000000005</v>
+        <v>96.790000000000049</v>
       </c>
       <c r="I107" s="29">
         <f>I105+Ausgaben!K171</f>
@@ -3978,7 +4054,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>4934.8200000000106</v>
+        <v>5461.4800000000096</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -4772,241 +4848,251 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D6:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5">
-    <cfRule type="cellIs" dxfId="134" priority="51" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D8:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G7">
+    <cfRule type="cellIs" dxfId="144" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="133" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="132" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="131" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="130" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="129" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="128" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="127" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="126" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="125" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="124" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="123" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="122" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="121" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="120" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="119" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="118" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="117" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="116" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="115" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="114" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="113" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="112" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="111" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="110" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="109" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="108" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="107" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="106" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="105" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="104" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="103" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="102" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="101" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="100" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="99" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="98" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="97" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="96" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="95" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="94" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="93" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="92" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="91" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="90" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:E7">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D6:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D7:D34">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D6">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -5031,7 +5117,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5269,12 +5355,22 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="44">
+        <v>43495</v>
+      </c>
+      <c r="C9" s="62">
+        <v>7</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="21">
+        <v>-167.93</v>
+      </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="22"/>
@@ -5286,12 +5382,22 @@
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="15">
+        <v>43495</v>
+      </c>
+      <c r="C10" s="62">
+        <v>8</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="21">
+        <v>-12</v>
+      </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="22"/>
@@ -5303,14 +5409,24 @@
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="44">
+        <v>43466</v>
+      </c>
+      <c r="C11" s="62">
+        <v>9</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="I11" s="21">
+        <v>-163.41</v>
+      </c>
       <c r="J11" s="22"/>
       <c r="K11" s="4"/>
       <c r="L11" s="2"/>
@@ -5320,12 +5436,22 @@
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="44">
+        <v>43500</v>
+      </c>
+      <c r="C12" s="62">
+        <v>10</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>-280</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="22"/>
@@ -33713,7 +33839,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-356.79</v>
+        <v>-816.72</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -33721,7 +33847,7 @@
       </c>
       <c r="I170" s="34">
         <f>SUM(I3:I169)</f>
-        <v>0</v>
+        <v>-163.41</v>
       </c>
       <c r="J170" s="53">
         <f>SUM(J3:J169)</f>
@@ -35643,448 +35769,463 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E9:E45">
-    <cfRule type="cellIs" dxfId="88" priority="100" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E13:E45">
+    <cfRule type="cellIs" dxfId="98" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="87" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="86" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="85" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="84" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="83" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="82" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="81" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="80" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="79" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="78" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="77" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="76" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="75" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="74" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="73" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="72" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="71" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="70" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="69" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="68" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="67" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="66" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="65" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="64" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="63" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="62" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="61" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="60" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="59" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="58" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="57" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="56" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="55" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="54" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="53" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="52" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="51" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="49" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="48" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="47" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="46" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="45" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="44" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="43" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="36" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="34" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="32" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="31" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="30" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="28" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="24" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="22" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="21" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -201,6 +201,45 @@
   </si>
   <si>
     <t>WGV Versicherung</t>
+  </si>
+  <si>
+    <t>Mitgleidsbeitrak A.Rotweiler 2018+2019</t>
+  </si>
+  <si>
+    <t>Mitgleidsbeitrak Weinholzner 2018</t>
+  </si>
+  <si>
+    <t>Anonyme Spende 18.1.2019</t>
+  </si>
+  <si>
+    <t>80er Geburtstag A.Vater 7.1.19</t>
+  </si>
+  <si>
+    <t>Obst und Gartenbauverein 18.1.</t>
+  </si>
+  <si>
+    <t>Feier Natly 2.2.</t>
+  </si>
+  <si>
+    <t>Wanderer 13.2.</t>
+  </si>
+  <si>
+    <t>Anonyme Spende 13.2.2019</t>
+  </si>
+  <si>
+    <t>Obst und Gartenbauverein 15.2.</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 22.1.</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 5.2.</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 19.2.</t>
+  </si>
+  <si>
+    <t>Einzahlung auf Konto</t>
   </si>
 </sst>
 </file>
@@ -561,7 +600,262 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="145">
+  <dxfs count="196">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2476,8 +2770,8 @@
   <dimension ref="A1:IK169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+      <pane ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2661,7 +2955,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="17">
         <v>60</v>
@@ -2676,11 +2970,21 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="17"/>
+      <c r="A8" s="15">
+        <v>43515</v>
+      </c>
+      <c r="B8" s="62">
+        <v>5</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="17">
+        <v>60</v>
+      </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -2691,11 +2995,21 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="17"/>
+      <c r="A9" s="15">
+        <v>43515</v>
+      </c>
+      <c r="B9" s="62">
+        <v>6</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="17">
+        <v>30</v>
+      </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -2706,11 +3020,21 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="17"/>
+      <c r="A10" s="15">
+        <v>43515</v>
+      </c>
+      <c r="B10" s="62">
+        <v>7</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="17">
+        <v>20</v>
+      </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -2721,11 +3045,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="15">
+        <v>43515</v>
+      </c>
+      <c r="B11" s="62">
+        <v>8</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>61</v>
+      </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -2736,11 +3070,21 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="15">
+        <v>43515</v>
+      </c>
+      <c r="B12" s="62">
+        <v>9</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>86</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -2751,11 +3095,21 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="17"/>
+      <c r="A13" s="15">
+        <v>43515</v>
+      </c>
+      <c r="B13" s="62">
+        <v>10</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>164.3</v>
+      </c>
       <c r="F13" s="60"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -2766,11 +3120,21 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="15">
+        <v>43515</v>
+      </c>
+      <c r="B14" s="62">
+        <v>11</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="17">
+        <v>30</v>
+      </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -2781,11 +3145,21 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="15">
+        <v>43515</v>
+      </c>
+      <c r="B15" s="62">
+        <v>12</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>85.5</v>
+      </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -2796,11 +3170,21 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="15">
+        <v>43515</v>
+      </c>
+      <c r="B16" s="62">
+        <v>13</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>196.64</v>
+      </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -2811,11 +3195,21 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="15">
+        <v>43515</v>
+      </c>
+      <c r="B17" s="62">
+        <v>14</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>129.87</v>
+      </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -2826,11 +3220,21 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="15">
+        <v>43515</v>
+      </c>
+      <c r="B18" s="62">
+        <v>15</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>195.37</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -2841,12 +3245,22 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="15">
+        <v>43515</v>
+      </c>
+      <c r="B19" s="62">
+        <v>16</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="18">
+        <v>775</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="19"/>
@@ -3969,11 +4383,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>274.34000000000106</v>
+        <v>1333.0200000000009</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>2962.080000000009</v>
+        <v>3737.080000000009</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -4012,11 +4426,11 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>269.74000000000103</v>
+        <v>371.04000000000087</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>2145.3600000000088</v>
+        <v>2920.3600000000088</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -4054,7 +4468,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>5461.4800000000096</v>
+        <v>6337.7800000000097</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -4848,251 +5262,341 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D8:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G7">
-    <cfRule type="cellIs" dxfId="144" priority="53" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D20:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19">
+    <cfRule type="cellIs" dxfId="195" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="143" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="142" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="141" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="140" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="139" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="138" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="137" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="136" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="135" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="134" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="133" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="132" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="131" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="130" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="129" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="128" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="127" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="126" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="125" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="124" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="123" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="122" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="121" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="120" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="119" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="118" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="117" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="116" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="115" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="114" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="113" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="112" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="111" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="110" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="109" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="108" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="107" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="106" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="105" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="104" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="103" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="102" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="101" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="100" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="99" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="cellIs" dxfId="55" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="cellIs" dxfId="53" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="51" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="47" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="45" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="43" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="41" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="39" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="cellIs" dxfId="31" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="29" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="27" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D7:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D7:D10 D14 D20:D34">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D6 D11:D13 D15:D19">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -5117,7 +5621,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5463,11 +5967,21 @@
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
+      <c r="B13" s="44">
+        <v>43515</v>
+      </c>
+      <c r="C13" s="62">
+        <v>11</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="20">
+        <v>-25</v>
+      </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -5480,11 +5994,21 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="15">
+        <v>43515</v>
+      </c>
+      <c r="C14" s="62">
+        <v>12</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <v>-59.24</v>
+      </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -5497,11 +6021,21 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="20"/>
+      <c r="B15" s="15">
+        <v>43515</v>
+      </c>
+      <c r="C15" s="62">
+        <v>13</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>-45.57</v>
+      </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -5514,11 +6048,21 @@
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="20"/>
+      <c r="B16" s="15">
+        <v>43515</v>
+      </c>
+      <c r="C16" s="62">
+        <v>14</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>-52.57</v>
+      </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -5531,11 +6075,21 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="15">
+        <v>43515</v>
+      </c>
+      <c r="C17" s="62">
+        <v>15</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="20">
+        <v>-775</v>
+      </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -33835,7 +34389,7 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-4.5999999999999996</v>
+        <v>-961.98</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
@@ -35769,463 +36323,498 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E13:E45">
-    <cfRule type="cellIs" dxfId="98" priority="103" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17:E45">
+    <cfRule type="cellIs" dxfId="147" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="97" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="96" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="95" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="94" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="93" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="92" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="91" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="90" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="89" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="88" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="87" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="86" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="85" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="84" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="83" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="82" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="81" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="80" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="79" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="78" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="77" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="76" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="75" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="74" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="73" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="72" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="71" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="70" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="69" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="68" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="66" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="65" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="64" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="62" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="61" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="55" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="52" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="51" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="49" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="48" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="45" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="44" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="43" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="42" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="41" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="39" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="38" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="37" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="36" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="35" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="33" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="32" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="27" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="26" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="24" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="18" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="57" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="56" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="49" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
     <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -600,132 +600,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="196">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="171">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2770,8 +2645,8 @@
   <dimension ref="A1:IK169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3268,12 +3143,22 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="15">
+        <v>43517</v>
+      </c>
+      <c r="B20" s="62">
+        <v>17</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="18">
+        <v>271.04000000000002</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
@@ -4387,7 +4272,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>3737.080000000009</v>
+        <v>4008.120000000009</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -4426,11 +4311,11 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>371.04000000000087</v>
+        <v>100.00000000000091</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>2920.3600000000088</v>
+        <v>3191.4000000000087</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -5262,341 +5147,351 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D20:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19">
-    <cfRule type="cellIs" dxfId="195" priority="74" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20">
+    <cfRule type="cellIs" dxfId="170" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="194" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="193" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="192" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="191" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="190" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="189" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="188" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="187" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="186" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="185" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="184" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="183" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="182" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="181" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="180" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="179" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="178" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="177" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="176" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="175" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="174" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="173" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="172" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="171" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="170" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="169" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="168" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="167" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="166" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="165" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="164" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="163" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="162" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="161" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="160" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="159" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="158" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="157" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="156" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="155" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="154" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="153" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="152" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="151" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="150" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="149" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="148" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="55" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="53" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="51" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="47" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="45" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="43" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="41" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="39" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="31" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="29" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="27" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="105" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D7:D10 D14 D20:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D7:D10 D14 D21:D34">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D6 D11:D13 D15:D19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D6 D11:D13 D15:D20">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -5621,7 +5516,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="B17:F17"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6102,11 +5997,21 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="20"/>
+      <c r="B18" s="15">
+        <v>43517</v>
+      </c>
+      <c r="C18" s="62">
+        <v>16</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="20">
+        <v>-271.04000000000002</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -34389,7 +34294,7 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-961.98</v>
+        <v>-1233.02</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
@@ -36323,498 +36228,503 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17:E45">
-    <cfRule type="cellIs" dxfId="147" priority="110" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E19:E45">
+    <cfRule type="cellIs" dxfId="104" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="146" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="145" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="144" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="143" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="142" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="141" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="140" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="139" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="138" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="137" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="136" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="135" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="134" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="133" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="132" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="131" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="130" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="129" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="128" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="127" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="126" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="125" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="124" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="123" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="122" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="121" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="120" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="119" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="118" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="117" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="116" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="115" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="114" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="113" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="112" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="111" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="110" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="109" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="108" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="107" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="106" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="105" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="104" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="103" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="102" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="101" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="100" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="99" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="98" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="97" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="96" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="95" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="94" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="93" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="92" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="91" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="90" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="89" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="88" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="87" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="86" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="85" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="84" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="83" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="82" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="81" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="80" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="79" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="78" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="77" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="76" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="75" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="74" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="73" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="72" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="71" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="70" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="69" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="68" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="67" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="66" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="65" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="64" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="63" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="62" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="61" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="60" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="59" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="58" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="57" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="56" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="49" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -161,12 +161,6 @@
     <t>Übertrag aus 2018</t>
   </si>
   <si>
-    <t>AZ Wasser I/2018</t>
-  </si>
-  <si>
-    <t>Stadt Wabu  Miete Jan.2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">EnbW  Az Strom </t>
   </si>
   <si>
@@ -188,25 +182,13 @@
     <t>Spende Stadt Vereinsförderung immer bis Juni beantragen</t>
   </si>
   <si>
-    <t>Mitgleidsbeitrak J.Klink 2018+2019</t>
-  </si>
-  <si>
     <t>Vereinsförderung Stadt Waldenbuch</t>
   </si>
   <si>
     <t>Taschen Häusle Jubeläum</t>
   </si>
   <si>
-    <t>Stadt Wabu  Miete Feb.2018</t>
-  </si>
-  <si>
     <t>WGV Versicherung</t>
-  </si>
-  <si>
-    <t>Mitgleidsbeitrak A.Rotweiler 2018+2019</t>
-  </si>
-  <si>
-    <t>Mitgleidsbeitrak Weinholzner 2018</t>
   </si>
   <si>
     <t>Anonyme Spende 18.1.2019</t>
@@ -240,6 +222,39 @@
   </si>
   <si>
     <t>Einzahlung auf Konto</t>
+  </si>
+  <si>
+    <t>Telekom Feb.</t>
+  </si>
+  <si>
+    <t>AZ Wasser I/2019</t>
+  </si>
+  <si>
+    <t>Stadt Wabu  Miete Jan.2019</t>
+  </si>
+  <si>
+    <t>Stadt Wabu  Miete Feb.2019</t>
+  </si>
+  <si>
+    <t>Wasser Rückzahlung</t>
+  </si>
+  <si>
+    <t>Getränke Kappel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnbW  Rückzahlung Strom </t>
+  </si>
+  <si>
+    <t>Stadt Wabu  Miete Mrz.2019</t>
+  </si>
+  <si>
+    <t>Mitgleidsbeitrag J.Klink 2018+2019</t>
+  </si>
+  <si>
+    <t>Mitgleidsbeitrag A.Rotweiler 2018+2019</t>
+  </si>
+  <si>
+    <t>Mitgleidsbeitrag Weinholzner 2018</t>
   </si>
 </sst>
 </file>
@@ -600,7 +615,57 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="171">
+  <dxfs count="181">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2645,8 +2710,8 @@
   <dimension ref="A1:IK169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2752,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>13</v>
@@ -2777,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>13</v>
@@ -2802,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>13</v>
@@ -2827,7 +2892,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>27</v>
@@ -2852,7 +2917,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D8" s="59" t="s">
         <v>27</v>
@@ -2877,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D9" s="59" t="s">
         <v>27</v>
@@ -2902,7 +2967,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D10" s="59" t="s">
         <v>13</v>
@@ -2927,7 +2992,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>0</v>
@@ -2952,7 +3017,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>0</v>
@@ -2977,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>0</v>
@@ -3002,7 +3067,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D14" s="59" t="s">
         <v>13</v>
@@ -3027,7 +3092,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>0</v>
@@ -3052,7 +3117,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>0</v>
@@ -3077,7 +3142,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>0</v>
@@ -3102,7 +3167,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>0</v>
@@ -3127,7 +3192,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>28</v>
@@ -3150,7 +3215,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>28</v>
@@ -3166,12 +3231,22 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="19"/>
+      <c r="A21" s="15">
+        <v>43509</v>
+      </c>
+      <c r="B21" s="62">
+        <v>18</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18">
+        <v>4.93</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="19"/>
@@ -3179,12 +3254,22 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="19"/>
+      <c r="A22" s="44">
+        <v>43507</v>
+      </c>
+      <c r="B22" s="62">
+        <v>19</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18">
+        <v>1223.53</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="19"/>
@@ -4255,7 +4340,7 @@
       <c r="H104" s="18"/>
       <c r="I104" s="19"/>
       <c r="J104" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K104" s="2"/>
     </row>
@@ -4272,7 +4357,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>4008.120000000009</v>
+        <v>5236.580000000009</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -4315,7 +4400,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>3191.4000000000087</v>
+        <v>4171.2900000000091</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -4353,7 +4438,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>6337.7800000000097</v>
+        <v>7317.6700000000101</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5147,351 +5232,356 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G27 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20">
-    <cfRule type="cellIs" dxfId="170" priority="76" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 D23:G27 E22:G22">
+    <cfRule type="cellIs" dxfId="180" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="169" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="168" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="167" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="166" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="165" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="164" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="163" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="162" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="161" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="160" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="159" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="158" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="157" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="156" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="155" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="154" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="153" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="152" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="151" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="150" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="149" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="148" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="147" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="146" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="145" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="144" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="143" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="142" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="141" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="140" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="139" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="138" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="137" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="136" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="135" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="134" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="133" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="132" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="131" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="130" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="129" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="128" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="127" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="126" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="125" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="124" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="123" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="122" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="121" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="120" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="119" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="118" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="117" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="116" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="115" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="114" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="113" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="112" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="111" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="110" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="109" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="108" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="107" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="106" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="105" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D7:D10 D14 D21:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D7:D10 D14 D21 D23:D34">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D6 D11:D13 D15:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D6 D11:D13 D15:D20 D22">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -5516,7 +5606,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5599,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E3" s="42" t="s">
         <v>22</v>
@@ -5626,7 +5716,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>21</v>
@@ -5653,7 +5743,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>22</v>
@@ -5680,7 +5770,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>22</v>
@@ -5707,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>22</v>
@@ -5734,7 +5824,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="55" t="s">
         <v>15</v>
@@ -5761,7 +5851,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>0</v>
@@ -5788,7 +5878,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>21</v>
@@ -5815,7 +5905,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>22</v>
@@ -5842,7 +5932,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>22</v>
@@ -5869,7 +5959,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>23</v>
@@ -5896,7 +5986,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>0</v>
@@ -5923,7 +6013,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>0</v>
@@ -5950,7 +6040,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>0</v>
@@ -5977,7 +6067,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>28</v>
@@ -6004,7 +6094,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>28</v>
@@ -6024,12 +6114,22 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="15">
+        <v>43514</v>
+      </c>
+      <c r="C19" s="62">
+        <v>17</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>22</v>
+      </c>
       <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="21">
+        <v>-16.84</v>
+      </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="22"/>
@@ -6039,12 +6139,22 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="15">
+        <v>43510</v>
+      </c>
+      <c r="C20" s="62">
+        <v>18</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>0</v>
+      </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="21">
+        <v>-17.73</v>
+      </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="22"/>
@@ -6054,12 +6164,22 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="15">
+        <v>43525</v>
+      </c>
+      <c r="C21" s="62">
+        <v>19</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>21</v>
+      </c>
       <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="21">
+        <v>-12</v>
+      </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="22"/>
@@ -6069,12 +6189,22 @@
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="15">
+        <v>43528</v>
+      </c>
+      <c r="C22" s="62">
+        <v>20</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="21">
+        <v>-202</v>
+      </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
@@ -34298,7 +34428,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-816.72</v>
+        <v>-1065.29</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -36228,503 +36358,523 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E19:E45">
-    <cfRule type="cellIs" dxfId="104" priority="111" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E23:E45">
+    <cfRule type="cellIs" dxfId="112" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="103" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="102" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="101" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="100" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="99" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="98" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="97" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="96" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="95" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="94" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="93" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="92" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="91" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="90" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="89" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="88" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="87" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="86" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="85" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="84" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="83" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="82" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="81" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="80" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="79" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="78" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="77" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="76" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="75" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="74" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="73" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="72" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="71" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="70" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="69" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="68" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="67" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="50" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="82">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -255,6 +255,21 @@
   </si>
   <si>
     <t>Mitgleidsbeitrag Weinholzner 2018</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 5.3.</t>
+  </si>
+  <si>
+    <t>Jahrgang 7.3.</t>
+  </si>
+  <si>
+    <t>Anonyme Spende 7.3.2019</t>
+  </si>
+  <si>
+    <t>Mitgleidsbeitrag Kastner 2019</t>
+  </si>
+  <si>
+    <t>Trauerkarte Fr. Jorewitz 14.2.</t>
   </si>
 </sst>
 </file>
@@ -615,7 +630,67 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="181">
+  <dxfs count="193">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2709,9 +2784,9 @@
   </sheetPr>
   <dimension ref="A1:IK169"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3277,11 +3352,21 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="15">
+        <v>43532</v>
+      </c>
+      <c r="B23" s="16">
+        <v>20</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>159.46</v>
+      </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -3290,11 +3375,21 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="15">
+        <v>43532</v>
+      </c>
+      <c r="B24" s="16">
+        <v>21</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>75.3</v>
+      </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -3303,11 +3398,21 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="15">
+        <v>43532</v>
+      </c>
+      <c r="B25" s="62">
+        <v>22</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="17">
+        <v>45</v>
+      </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -3316,11 +3421,21 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="17"/>
+      <c r="A26" s="15">
+        <v>43532</v>
+      </c>
+      <c r="B26" s="62">
+        <v>23</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="17">
+        <v>30</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -4353,7 +4468,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>1333.0200000000009</v>
+        <v>1642.7800000000009</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
@@ -4396,7 +4511,7 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>100.00000000000091</v>
+        <v>337.60000000000082</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
@@ -4438,7 +4553,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>7317.6700000000101</v>
+        <v>7555.2700000000104</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5232,356 +5347,386 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 D23:G27 E22:G22">
-    <cfRule type="cellIs" dxfId="180" priority="77" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 D27:G27 E22:G22 F23:G26">
+    <cfRule type="cellIs" dxfId="192" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="179" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="178" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="177" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="176" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="175" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="174" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="173" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="172" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="171" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="170" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="169" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="168" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="167" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="166" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="165" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="164" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="163" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="162" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="161" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="160" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="159" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="158" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="157" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="156" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="155" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="154" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="153" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="152" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="151" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="150" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="149" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="148" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="147" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="146" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="145" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="144" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="143" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="142" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="141" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="140" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="139" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="138" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="137" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="136" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="135" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="134" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="133" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="132" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="131" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="130" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="129" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="128" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="127" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="126" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="125" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="124" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="123" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="122" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="121" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="120" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="119" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="118" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="117" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="116" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="115" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="114" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="113" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="124" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
     <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D7:D10 D14 D21 D23:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D7:D10 D14 D21 D25:D34">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D6 D11:D13 D15:D20 D22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D6 D11:D13 D15:D20 D22:D24">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -5604,9 +5749,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6214,11 +6359,21 @@
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+      <c r="B23" s="15">
+        <v>43532</v>
+      </c>
+      <c r="C23" s="16">
+        <v>21</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <v>-47.16</v>
+      </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -6229,11 +6384,21 @@
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+      <c r="B24" s="15">
+        <v>43532</v>
+      </c>
+      <c r="C24" s="16">
+        <v>22</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="17">
+        <v>-25</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
@@ -34424,7 +34589,7 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-1233.02</v>
+        <v>-1305.18</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
@@ -36358,522 +36523,542 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E23:E45">
-    <cfRule type="cellIs" dxfId="112" priority="116" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E25:E45">
+    <cfRule type="cellIs" dxfId="123" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="111" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="110" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="109" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="108" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="107" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="106" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="105" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="104" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="103" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="102" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="101" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="100" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="99" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="98" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="97" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="96" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="95" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="94" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="93" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="92" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="91" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="90" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="89" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="88" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="86" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="85" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="84" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="83" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="82" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="81" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="80" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="79" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="78" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="77" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="75" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="74" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="73" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="67" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="66" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="65" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="64" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="63" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="62" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="61" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="60" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="59" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="58" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="57" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="56" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="55" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="54" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="52" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="51" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="50" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="49" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="48" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="47" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="46" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="45" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="44" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="43" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="42" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="41" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="40" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="25" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="24" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="23" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="22" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="21" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="20" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="19" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="20" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -630,57 +630,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="193">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="183">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -5348,377 +5298,377 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 D27:G27 E22:G22 F23:G26">
-    <cfRule type="cellIs" dxfId="192" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="191" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="190" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="189" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="188" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="187" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="186" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="185" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="184" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="183" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="182" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="181" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="180" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="179" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="178" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="177" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="176" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="175" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="174" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="173" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="172" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="171" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="170" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="169" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="168" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="167" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="166" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="165" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="164" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="163" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="162" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="161" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="160" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="159" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="158" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="157" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="156" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="155" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="154" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="153" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="152" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="151" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="150" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="149" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="148" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="147" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="146" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="145" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="144" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="143" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="142" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="141" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="140" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="139" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="138" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="137" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="136" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="135" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="134" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="133" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="132" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="131" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="130" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="129" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="128" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="127" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="126" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="125" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="124" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36524,542 +36474,542 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E25:E45">
-    <cfRule type="cellIs" dxfId="123" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="122" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="121" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="120" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="119" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="118" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="117" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="116" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="115" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="114" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="113" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="112" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="111" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="109" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="108" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="107" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="106" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="105" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="104" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="103" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="102" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="101" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="100" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="99" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="98" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="97" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="96" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="95" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="94" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="93" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="92" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="91" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="90" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="89" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="88" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="87" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="86" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="85" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="84" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="83" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="82" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="81" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="80" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="79" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="78" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="77" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="76" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="75" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="74" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="73" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="72" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="71" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="70" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="69" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="68" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="67" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="66" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="65" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="64" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="63" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="62" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="61" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="60" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="59" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="58" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="57" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="56" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="55" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="54" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="53" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="52" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="51" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="50" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="49" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="48" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="47" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="46" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="45" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="44" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="43" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="42" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="41" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="40" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="39" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="38" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="37" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="36" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="35" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="33" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="32" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="27" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="24" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="20" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="83">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Trauerkarte Fr. Jorewitz 14.2.</t>
+  </si>
+  <si>
+    <t>Zinsen Awo BB</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -626,11 +629,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="183">
+  <dxfs count="191">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2734,9 +2778,9 @@
   </sheetPr>
   <dimension ref="A1:IK169"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3394,12 +3438,22 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="19"/>
+      <c r="A27" s="15">
+        <v>43531</v>
+      </c>
+      <c r="B27" s="16">
+        <v>24</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>14</v>
+      </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
+      <c r="F27" s="18">
+        <v>55</v>
+      </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="19"/>
@@ -3407,12 +3461,22 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="19"/>
+      <c r="A28" s="15">
+        <v>43532</v>
+      </c>
+      <c r="B28" s="16">
+        <v>25</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>14</v>
+      </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="F28" s="18">
+        <v>250</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="19"/>
@@ -4422,7 +4486,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>5236.580000000009</v>
+        <v>5541.580000000009</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -4465,7 +4529,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>4171.2900000000091</v>
+        <v>4352.7700000000095</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -4503,7 +4567,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>7555.2700000000104</v>
+        <v>7736.75000000001</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5297,378 +5361,383 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E28:G28 G29 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 D27:G27 E22:G22 F23:G26">
-    <cfRule type="cellIs" dxfId="182" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="181" priority="82" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26">
+    <cfRule type="cellIs" dxfId="190" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="180" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="179" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="178" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="177" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="176" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="175" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="174" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="173" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="172" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="171" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="170" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="169" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="168" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="167" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="166" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="165" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="164" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="163" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="162" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="161" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="160" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="159" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="158" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="157" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="156" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="155" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="154" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="153" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="152" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="151" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="150" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="149" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="148" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="147" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="146" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="145" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="144" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="143" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="142" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="141" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="140" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="139" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="138" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="137" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="136" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="135" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="134" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="133" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="132" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="131" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="130" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="129" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="128" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="127" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="126" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="125" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="124" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="123" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="122" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="121" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="120" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="119" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="118" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="117" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="116" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="115" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="114" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="113" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="112" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="111" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="110" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="109" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="108" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5699,9 +5768,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6359,12 +6428,22 @@
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="19"/>
+      <c r="B25" s="15">
+        <v>43531</v>
+      </c>
+      <c r="C25" s="62">
+        <v>23</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>0</v>
+      </c>
       <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="21">
+        <v>-123.52</v>
+      </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="22"/>
@@ -34543,7 +34622,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-1065.29</v>
+        <v>-1188.81</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -36473,543 +36552,548 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E25:E45">
-    <cfRule type="cellIs" dxfId="107" priority="120" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26:E45">
+    <cfRule type="cellIs" dxfId="115" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="106" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="105" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="104" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="103" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="102" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="101" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="100" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="99" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="98" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="97" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="96" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="95" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="94" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="93" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="92" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="91" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="90" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="89" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="88" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="87" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="86" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="85" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="84" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="83" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="82" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="81" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="80" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="79" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="78" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="77" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="76" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="75" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="74" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="73" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="72" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="71" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="70" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="69" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="68" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="67" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="66" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="65" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="64" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="63" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="62" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="61" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="60" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="59" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="58" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="57" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="56" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="55" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="54" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="53" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="52" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="51" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="50" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="49" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="48" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="47" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="46" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="45" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="44" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="43" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="42" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="41" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="40" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="39" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="38" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="37" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="35" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="34" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="32" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="31" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="29" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="28" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="27" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="26" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="25" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="23" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="22" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>Zinsen Awo BB</t>
+  </si>
+  <si>
+    <t>Getränke Jahreshauptversammlung</t>
+  </si>
+  <si>
+    <t>Spenden Jahreshauptversammlung</t>
+  </si>
+  <si>
+    <t>Mitgleidsbeitrag Scholl 2018</t>
+  </si>
+  <si>
+    <t>Auslagen Jahreshauptversammlung</t>
   </si>
 </sst>
 </file>
@@ -621,6 +633,7 @@
     <xf numFmtId="165" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,7 +642,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2779,8 +2791,8 @@
   <dimension ref="A1:IK169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2800,17 +2812,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="s">
         <v>0</v>
@@ -3447,7 +3459,7 @@
       <c r="C27" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="65" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="17"/>
@@ -3470,7 +3482,7 @@
       <c r="C28" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="65" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="17"/>
@@ -3484,11 +3496,21 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17"/>
+      <c r="A29" s="44">
+        <v>43541</v>
+      </c>
+      <c r="B29" s="16">
+        <v>26</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="17">
+        <v>13.3</v>
+      </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
@@ -3497,11 +3519,21 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="17"/>
+      <c r="A30" s="44">
+        <v>43541</v>
+      </c>
+      <c r="B30" s="16">
+        <v>27</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="17">
+        <v>100</v>
+      </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -3510,11 +3542,21 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="17"/>
+      <c r="A31" s="44">
+        <v>43541</v>
+      </c>
+      <c r="B31" s="16">
+        <v>28</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="17">
+        <v>30</v>
+      </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -4482,7 +4524,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>1642.7800000000009</v>
+        <v>1786.0800000000008</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
@@ -4525,7 +4567,7 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>337.60000000000082</v>
+        <v>433.65000000000077</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
@@ -4567,7 +4609,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>7736.75000000001</v>
+        <v>7832.8000000000102</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5361,383 +5403,388 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E30:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26">
-    <cfRule type="cellIs" dxfId="190" priority="85" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31">
+    <cfRule type="cellIs" dxfId="190" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="188" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="187" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="185" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:F35">
+    <cfRule type="cellIs" dxfId="184" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="183" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="182" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="181" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="180" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="179" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="178" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:E42">
+    <cfRule type="cellIs" dxfId="177" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41 D43">
+    <cfRule type="cellIs" dxfId="176" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="175" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="174" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="173" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="172" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="171" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="170" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="169" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="cellIs" dxfId="168" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="167" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="166" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="165" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="164" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="163" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="162" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="161" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="cellIs" dxfId="160" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="159" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="158" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="157" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="156" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="155" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="cellIs" dxfId="154" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="153" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="152" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="151" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="150" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:F62">
+    <cfRule type="cellIs" dxfId="149" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="148" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="147" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="146" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="145" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:E7">
+    <cfRule type="cellIs" dxfId="144" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="cellIs" dxfId="143" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="cellIs" dxfId="142" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="141" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="140" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="139" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="138" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="137" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="136" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="cellIs" dxfId="135" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="134" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="133" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="132" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="131" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="130" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="129" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="128" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="127" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="126" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="125" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="124" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="123" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="122" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="121" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="120" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="119" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="118" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="117" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="116" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="115" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="186" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="185" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="184" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="183" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="182" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="181" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="180" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="179" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="178" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="177" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="176" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="175" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="174" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="173" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="172" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="171" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="170" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="169" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="168" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="167" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="166" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="165" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="164" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="163" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="162" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="161" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="160" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="159" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="158" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="157" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="156" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="155" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="154" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="153" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="152" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="151" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="150" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="149" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="148" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="147" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="146" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="145" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="144" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="143" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="142" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="141" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="140" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="139" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="138" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="137" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="136" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="135" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="134" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="133" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="132" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="131" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="130" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="129" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="128" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="127" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="126" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="125" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="124" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="123" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="122" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="121" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="120" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="119" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="118" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="117" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="116" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5769,8 +5816,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5792,17 +5839,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="4"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
@@ -6453,11 +6500,21 @@
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
+      <c r="B26" s="44">
+        <v>43541</v>
+      </c>
+      <c r="C26" s="62">
+        <v>24</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="20">
+        <v>-47.25</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -34618,7 +34675,7 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-1305.18</v>
+        <v>-1352.43</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
@@ -36553,547 +36610,547 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26:E45">
-    <cfRule type="cellIs" dxfId="115" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="114" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="113" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="112" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="111" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="110" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="109" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="108" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="107" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="106" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="105" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="104" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="103" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="102" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="101" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="100" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="99" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="98" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="97" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="96" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="95" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="94" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="93" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="92" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="91" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="90" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="89" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="88" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="87" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="86" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="85" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="84" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="83" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="82" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="81" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="80" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="79" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="78" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="77" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="62" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="50" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="28" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="26" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="25" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="24" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="22" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="88">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Auslagen Jahreshauptversammlung</t>
+  </si>
+  <si>
+    <t>Beitrag Vereinsring</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,12 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="191">
+  <dxfs count="192">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2791,8 +2799,8 @@
   <dimension ref="A1:IK169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3565,12 +3573,22 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="23"/>
+      <c r="A32" s="44">
+        <v>43541</v>
+      </c>
+      <c r="B32" s="16">
+        <v>29</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
+      <c r="F32" s="18">
+        <v>430</v>
+      </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
@@ -4528,7 +4546,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>5541.580000000009</v>
+        <v>5971.580000000009</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -4567,11 +4585,11 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>433.65000000000077</v>
+        <v>3.6500000000007731</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>4352.7700000000095</v>
+        <v>4762.7700000000095</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -4609,7 +4627,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>7832.8000000000102</v>
+        <v>7812.8000000000102</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5404,395 +5422,395 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31">
-    <cfRule type="cellIs" dxfId="190" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
+    <cfRule type="cellIs" dxfId="190" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
     <cfRule type="cellIs" dxfId="189" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="188" priority="85" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E35:F35">
+    <cfRule type="cellIs" dxfId="187" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="186" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="185" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="184" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="183" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="182" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="181" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:E42">
+    <cfRule type="cellIs" dxfId="180" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41 D43">
+    <cfRule type="cellIs" dxfId="179" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="178" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="177" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="176" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="175" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="174" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="173" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="172" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="cellIs" dxfId="171" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="170" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="169" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="168" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="167" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="166" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="165" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="164" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="cellIs" dxfId="163" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="162" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="161" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="160" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="159" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="158" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="cellIs" dxfId="157" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="156" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="155" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="154" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="153" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:F62">
+    <cfRule type="cellIs" dxfId="152" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="151" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="150" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="149" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="148" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:E7">
+    <cfRule type="cellIs" dxfId="147" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="cellIs" dxfId="146" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="cellIs" dxfId="145" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="144" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="143" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="142" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="141" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="140" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="139" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="cellIs" dxfId="138" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="137" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="136" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="135" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="134" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="133" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="132" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="131" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="130" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="129" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="128" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="127" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="126" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="125" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="124" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="123" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="122" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="121" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="120" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="119" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="118" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="117" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="116" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="115" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="185" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="184" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="183" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="182" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="181" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="180" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="179" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="178" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="177" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="176" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="175" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="174" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="173" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="172" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="171" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="170" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="169" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="168" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="167" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="166" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="165" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="164" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="163" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="162" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="161" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="160" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="159" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="158" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="157" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="156" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="155" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="154" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="153" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="152" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="151" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="150" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="149" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="148" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="147" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="146" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="145" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="144" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="143" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="142" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="141" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="140" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="139" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="138" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="137" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="136" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="135" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="134" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="133" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="132" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="131" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="130" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="129" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="128" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="127" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="126" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="125" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="124" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="123" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="122" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="121" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="120" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="119" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="118" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="117" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="116" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="115" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D7:D10 D14 D21 D25:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D7:D10 D14 D21 D25:D31 D33:D34">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D6 D11:D13 D15:D20 D22:D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D6 D11:D13 D15:D20 D22:D24 D32">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -5816,8 +5834,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6525,12 +6543,22 @@
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="23"/>
+      <c r="B27" s="44">
+        <v>43537</v>
+      </c>
+      <c r="C27" s="62">
+        <v>25</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
+      <c r="G27" s="21">
+        <v>-20</v>
+      </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
@@ -6540,11 +6568,21 @@
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="20"/>
+      <c r="B28" s="44">
+        <v>43541</v>
+      </c>
+      <c r="C28" s="62">
+        <v>26</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="20">
+        <v>-430</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
@@ -34675,11 +34713,11 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-1352.43</v>
+        <v>-1782.43</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-1188.81</v>
+        <v>-1208.81</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -36609,548 +36647,558 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26:E45">
-    <cfRule type="cellIs" dxfId="114" priority="122" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E29:E45">
+    <cfRule type="cellIs" dxfId="114" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="113" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="112" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="111" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="110" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="109" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="108" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="107" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="106" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="105" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="104" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="103" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="102" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="101" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="100" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="99" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="98" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="97" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="96" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="95" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="94" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="93" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="92" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="91" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="90" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="89" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="88" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="87" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="86" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="85" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="84" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="83" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="82" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="81" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="80" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="79" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="78" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="77" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="75" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="74" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="73" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="72" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="71" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="70" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="69" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="60" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="58" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="56" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="54" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="52" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="50" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="48" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="47" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="44" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="42" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="38" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="32" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="30" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="29" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="17" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="15" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="95">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -288,6 +288,27 @@
   </si>
   <si>
     <t>Beitrag Vereinsring</t>
+  </si>
+  <si>
+    <t>Telekom Mrz.</t>
+  </si>
+  <si>
+    <t>Jahreshauptversammlung</t>
+  </si>
+  <si>
+    <t>Auszahlung</t>
+  </si>
+  <si>
+    <t>Auszahlung Konto</t>
+  </si>
+  <si>
+    <t>Spülmittel</t>
+  </si>
+  <si>
+    <t>AZ Wasser 2/2019</t>
+  </si>
+  <si>
+    <t>Stadt Wabu  Miete Apr.2019</t>
   </si>
 </sst>
 </file>
@@ -649,7 +670,82 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="192">
+  <dxfs count="207">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2799,8 +2895,8 @@
   <dimension ref="A1:IK169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3596,11 +3692,21 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="17"/>
+      <c r="A33" s="15">
+        <v>43549</v>
+      </c>
+      <c r="B33" s="16">
+        <v>30</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="17">
+        <v>200</v>
+      </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -4542,7 +4648,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>1786.0800000000008</v>
+        <v>1986.0800000000008</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
@@ -4585,11 +4691,11 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>3.6500000000007731</v>
+        <v>203.65000000000077</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>4762.7700000000095</v>
+        <v>4093.4000000000092</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -4627,7 +4733,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>7812.8000000000102</v>
+        <v>7343.4300000000103</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5421,396 +5527,401 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G32 D33:G33 E34:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31">
-    <cfRule type="cellIs" dxfId="191" priority="89" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31">
+    <cfRule type="cellIs" dxfId="206" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="190" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="189" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="187" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="186" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="185" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="184" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="183" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="182" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="181" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="180" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="179" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="178" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="177" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="176" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="175" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="174" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="173" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="172" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="171" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="170" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="169" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="168" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="167" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="166" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="165" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="164" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="163" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="162" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="161" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="160" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="159" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="158" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="157" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="156" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="155" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="154" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="153" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="152" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="151" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="150" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="149" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="148" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="147" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="146" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="145" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="144" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="143" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="142" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="141" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="140" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="139" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="138" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="137" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="136" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="135" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="134" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="133" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="132" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="131" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="130" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="129" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="128" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="127" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="126" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="125" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="124" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="123" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="122" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="121" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="120" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="119" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="118" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="117" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="116" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="115" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D7:D10 D14 D21 D25:D31 D33:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D7:D10 D14 D21 D25:D31 D34">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D6 D11:D13 D15:D20 D22:D24 D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D6 D11:D13 D15:D20 D22:D24 D32:D33">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -5834,8 +5945,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28:E28"/>
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6593,12 +6704,22 @@
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="19"/>
+      <c r="B29" s="15">
+        <v>43542</v>
+      </c>
+      <c r="C29" s="62">
+        <v>27</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>22</v>
+      </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="G29" s="21">
+        <v>-17.02</v>
+      </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="22"/>
@@ -6608,12 +6729,22 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="23"/>
+      <c r="B30" s="15">
+        <v>43544</v>
+      </c>
+      <c r="C30" s="62">
+        <v>28</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>-98.1</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="22"/>
@@ -6623,12 +6754,22 @@
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="19"/>
+      <c r="B31" s="15">
+        <v>43544</v>
+      </c>
+      <c r="C31" s="62">
+        <v>29</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>0</v>
+      </c>
       <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="21">
+        <v>-32.49</v>
+      </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="22"/>
@@ -6638,12 +6779,22 @@
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="19"/>
+      <c r="B32" s="44">
+        <v>43549</v>
+      </c>
+      <c r="C32" s="62">
+        <v>30</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="21">
+        <v>-200</v>
+      </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="22"/>
@@ -6653,12 +6804,22 @@
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="19"/>
+      <c r="B33" s="15">
+        <v>43551</v>
+      </c>
+      <c r="C33" s="62">
+        <v>31</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>22</v>
+      </c>
       <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="G33" s="21">
+        <v>-76.760000000000005</v>
+      </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="22"/>
@@ -6668,12 +6829,22 @@
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="19"/>
+      <c r="B34" s="15">
+        <v>43556</v>
+      </c>
+      <c r="C34" s="62">
+        <v>32</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>22</v>
+      </c>
       <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
+      <c r="G34" s="21">
+        <v>-31</v>
+      </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="22"/>
@@ -6683,12 +6854,22 @@
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="42"/>
+      <c r="B35" s="15">
+        <v>43556</v>
+      </c>
+      <c r="C35" s="62">
+        <v>33</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>21</v>
+      </c>
       <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
+      <c r="G35" s="21">
+        <v>-12</v>
+      </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="22"/>
@@ -6698,12 +6879,22 @@
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="19"/>
+      <c r="B36" s="15">
+        <v>43559</v>
+      </c>
+      <c r="C36" s="62">
+        <v>34</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="G36" s="21">
+        <v>-202</v>
+      </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="22"/>
@@ -34717,7 +34908,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-1208.81</v>
+        <v>-1878.1799999999998</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -36647,558 +36838,598 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E29:E45">
-    <cfRule type="cellIs" dxfId="114" priority="124" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E37:E45">
+    <cfRule type="cellIs" dxfId="129" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="113" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="112" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="111" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="110" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="109" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="108" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="107" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="106" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="105" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="104" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="103" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="102" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="101" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="100" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="99" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="98" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="97" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="96" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="95" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="94" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="93" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="92" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="91" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="90" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="89" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="88" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="87" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="86" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="85" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="84" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="83" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="82" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="81" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="80" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="79" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="78" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="77" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="76" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="75" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="74" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="73" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="72" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="71" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="70" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="69" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="68" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="67" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="65" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="64" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="63" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="62" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="61" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="59" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="58" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="57" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="55" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="53" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="51" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="49" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="47" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="46" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="45" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="44" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="43" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="42" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="41" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="40" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="38" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="37" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="35" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="34" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="33" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="32" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="27" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="25" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="24" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="19" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="15" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
     <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -309,6 +309,24 @@
   </si>
   <si>
     <t>Stadt Wabu  Miete Apr.2019</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 12.3.</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 2.4.</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 9.4.</t>
+  </si>
+  <si>
+    <t>Obst und Gartenbauverein 15.3.</t>
+  </si>
+  <si>
+    <t>Einkauf Metro</t>
+  </si>
+  <si>
+    <t>Einkauf Penny</t>
   </si>
 </sst>
 </file>
@@ -670,7 +688,127 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="207">
+  <dxfs count="231">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2895,8 +3033,8 @@
   <dimension ref="A1:IK169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3715,11 +3853,21 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="17"/>
+      <c r="A34" s="15">
+        <v>43566</v>
+      </c>
+      <c r="B34" s="16">
+        <v>31</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="17">
+        <v>137.94</v>
+      </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -3728,11 +3876,21 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="17"/>
+      <c r="A35" s="15">
+        <v>43566</v>
+      </c>
+      <c r="B35" s="16">
+        <v>32</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="17">
+        <v>205.28</v>
+      </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -3741,11 +3899,21 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="51"/>
+      <c r="A36" s="15">
+        <v>43566</v>
+      </c>
+      <c r="B36" s="16">
+        <v>33</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
+        <v>194.08</v>
+      </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -3754,11 +3922,21 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="17"/>
+      <c r="A37" s="15">
+        <v>43566</v>
+      </c>
+      <c r="B37" s="16">
+        <v>34</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="17">
+        <v>39</v>
+      </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -3767,12 +3945,22 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="15">
+        <v>43566</v>
+      </c>
+      <c r="B38" s="63">
+        <v>35</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="18">
+        <v>470</v>
+      </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
@@ -4648,11 +4836,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>1986.0800000000008</v>
+        <v>2562.380000000001</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>5971.580000000009</v>
+        <v>6441.580000000009</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -4691,11 +4879,11 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>203.65000000000077</v>
+        <v>25.260000000001128</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>4093.4000000000092</v>
+        <v>4563.4000000000087</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -4733,7 +4921,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>7343.4300000000103</v>
+        <v>7635.04000000001</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5527,401 +5715,431 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G34 G35 D36:G37 E38:G38 F39:G39 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31">
-    <cfRule type="cellIs" dxfId="206" priority="90" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G39">
+    <cfRule type="cellIs" dxfId="230" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="205" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="204" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35:F35">
-    <cfRule type="cellIs" dxfId="203" priority="82" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="227" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="223" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="222" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="221" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:E42">
+    <cfRule type="cellIs" dxfId="220" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41 D43">
+    <cfRule type="cellIs" dxfId="219" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="218" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="217" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="216" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="215" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="214" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="213" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="212" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="cellIs" dxfId="211" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="210" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="209" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="208" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="207" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="206" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="205" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="204" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="cellIs" dxfId="203" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="202" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="201" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="200" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="199" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="198" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="cellIs" dxfId="197" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="196" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="195" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="194" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="193" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:F62">
+    <cfRule type="cellIs" dxfId="192" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="191" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="190" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="189" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="188" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:E7">
+    <cfRule type="cellIs" dxfId="187" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="cellIs" dxfId="186" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="cellIs" dxfId="185" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="184" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="183" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="182" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="181" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="180" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="179" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="cellIs" dxfId="178" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="177" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="176" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="175" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="174" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="173" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="172" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="171" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="170" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="169" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="168" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="167" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="166" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="165" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="164" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="163" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="162" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="161" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="160" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="159" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="158" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="157" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="156" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="155" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="154" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="153" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="33" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="31" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="202" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="201" priority="80" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="200" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="199" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="198" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="197" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="196" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="195" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="194" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="193" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="192" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="191" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="190" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="189" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="188" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="187" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="186" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="185" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="184" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="183" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="182" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="181" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="180" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="179" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="178" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="177" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="176" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="175" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="174" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="173" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="172" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="171" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="170" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="169" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="168" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="167" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="166" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="165" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="164" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="163" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="162" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="161" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="160" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="159" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="158" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="157" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="156" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="155" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="154" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="153" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="152" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="151" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="150" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="149" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="148" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="147" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="146" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="145" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="144" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="143" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="142" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="141" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="140" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="139" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="138" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="137" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="136" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="135" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="134" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="133" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="132" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="131" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="130" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D36:D37 D46 D48 D50 D53:D104 D3 D7:D10 D14 D21 D25:D31 D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D25:D31 D46 D48 D50 D53:D104 D3 D7:D10 D14 D21">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35 D51:D52 D47 D49 D38:D41 D43:D45 D4:D6 D11:D13 D15:D20 D22:D24 D32:D33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:D52 D47 D49 D43:D45 D4:D6 D11:D13 D15:D20 D22:D24 D32:D41">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -5945,8 +6163,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6904,11 +7122,21 @@
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
+      <c r="B37" s="15">
+        <v>43566</v>
+      </c>
+      <c r="C37" s="16">
+        <v>35</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="17">
+        <v>-27.34</v>
+      </c>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
@@ -6919,11 +7147,21 @@
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="20"/>
+      <c r="B38" s="15">
+        <v>43566</v>
+      </c>
+      <c r="C38" s="16">
+        <v>36</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="17">
+        <v>-85.68</v>
+      </c>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
@@ -6934,11 +7172,21 @@
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
+      <c r="B39" s="15">
+        <v>43566</v>
+      </c>
+      <c r="C39" s="16">
+        <v>37</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="17">
+        <v>-39.28</v>
+      </c>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -6951,11 +7199,21 @@
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
+      <c r="B40" s="15">
+        <v>43551</v>
+      </c>
+      <c r="C40" s="62">
+        <v>38</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="20">
+        <v>-112.64</v>
+      </c>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
@@ -6970,11 +7228,21 @@
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
+      <c r="B41" s="15">
+        <v>43542</v>
+      </c>
+      <c r="C41" s="62">
+        <v>39</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="20">
+        <v>-19.75</v>
+      </c>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
@@ -6987,11 +7255,21 @@
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
+      <c r="B42" s="15">
+        <v>43566</v>
+      </c>
+      <c r="C42" s="63">
+        <v>40</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="20">
+        <v>-470</v>
+      </c>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -34904,7 +35182,7 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-1782.43</v>
+        <v>-2537.12</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
@@ -36838,598 +37116,638 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E37:E45">
-    <cfRule type="cellIs" dxfId="129" priority="132" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42:E45">
+    <cfRule type="cellIs" dxfId="152" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="128" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="127" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="126" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="125" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="124" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="123" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="122" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="121" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="120" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="119" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="118" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="117" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="116" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="115" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="114" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="113" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="112" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="111" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="110" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="109" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="108" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="107" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="106" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="105" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="104" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="103" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="102" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="101" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="100" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="99" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="98" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="97" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="95" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="93" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="92" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="91" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="90" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="89" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="88" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="87" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="86" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="85" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="84" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="83" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="82" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="81" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="80" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="79" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="78" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="77" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="76" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="75" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="74" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="73" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="72" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="71" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="70" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="69" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="68" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="67" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="66" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="65" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="64" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="63" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="60" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="59" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="58" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="57" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="56" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="55" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="54" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="53" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="52" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="51" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="50" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="43" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="42" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="41" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="40" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="39" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="38" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="37" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="36" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="35" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="34" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="33" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="31" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="30" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="29" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="28" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="27" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="26" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="25" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="23" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="22" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="29" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="27" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>Einkauf Penny</t>
+  </si>
+  <si>
+    <t>Porto W.Schwarz 26.2.</t>
   </si>
 </sst>
 </file>
@@ -688,107 +691,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="231">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="211">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3032,7 +2935,7 @@
   </sheetPr>
   <dimension ref="A1:IK169"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
@@ -4879,7 +4782,7 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>25.260000000001128</v>
+        <v>11.260000000001128</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
@@ -4921,7 +4824,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>7635.04000000001</v>
+        <v>7621.04000000001</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5716,422 +5619,422 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G39">
-    <cfRule type="cellIs" dxfId="230" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="229" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="228" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="227" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="223" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="222" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="221" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="220" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="219" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="218" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="217" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="216" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="215" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="214" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="213" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="212" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="211" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="210" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="209" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="208" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="207" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="206" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="205" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="204" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="203" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="202" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="201" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="200" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="199" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="198" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="197" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="196" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="195" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="194" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="193" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="192" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="191" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="190" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="189" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="188" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="187" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="186" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="185" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="184" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="183" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="182" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="181" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="180" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="179" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="178" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="177" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="176" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="175" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="174" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="173" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="172" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="171" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="170" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="169" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="168" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="167" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="166" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="165" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="164" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="163" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="162" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="161" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="160" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="159" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="158" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="157" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="156" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="155" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="154" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="153" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="33" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="31" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6162,9 +6065,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42:F42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7284,11 +7187,21 @@
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
+      <c r="B43" s="15">
+        <v>43571</v>
+      </c>
+      <c r="C43" s="62">
+        <v>41</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="20">
+        <v>-14</v>
+      </c>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
@@ -35182,7 +35095,7 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-2537.12</v>
+        <v>-2551.12</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
@@ -37116,643 +37029,643 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42:E45">
-    <cfRule type="cellIs" dxfId="152" priority="140" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 E44:E45">
+    <cfRule type="cellIs" dxfId="126" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="151" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="150" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="149" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="148" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="147" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="146" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="145" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="144" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="143" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="142" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="141" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="140" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="139" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="138" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="137" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="136" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="135" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="134" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="133" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="132" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="131" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="130" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="129" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="128" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="127" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="126" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="125" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="124" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="123" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="122" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="121" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="120" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="119" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="118" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="117" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="116" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="115" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="114" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="113" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="112" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="111" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="110" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="109" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="108" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="107" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="106" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="105" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="104" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="103" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="102" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="101" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="100" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="99" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="98" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="97" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="96" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="95" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="94" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="93" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="92" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="91" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="90" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="89" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="88" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="87" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="86" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="85" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="84" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="83" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="82" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="81" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="80" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="79" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="78" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="77" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="76" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="75" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="74" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="73" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="72" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="71" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="70" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="69" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="68" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="67" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="66" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="65" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="64" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="63" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="62" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="61" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="60" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="59" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="58" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="57" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="56" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="55" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="54" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="53" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="52" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="51" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="50" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="49" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="48" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="47" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="46" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="45" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="44" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="43" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="42" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="41" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="40" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="39" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="38" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="37" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="36" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="35" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="34" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="29" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="27" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E56:E120 E3:E7 E9:E53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E56:E120 E3:E7 E9:E42 E44:E53">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E55">

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="104">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>Porto W.Schwarz 26.2.</t>
+  </si>
+  <si>
+    <t>Rundfunkgeb. 03/2019-05/2019</t>
+  </si>
+  <si>
+    <t>Telekom Apr.</t>
   </si>
 </sst>
 </file>
@@ -691,7 +697,27 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="211">
+  <dxfs count="215">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2935,9 +2961,9 @@
   </sheetPr>
   <dimension ref="A1:IK169"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4786,7 +4812,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>4563.4000000000087</v>
+        <v>4528.4500000000089</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -4824,7 +4850,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>7621.04000000001</v>
+        <v>7586.0900000000101</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5619,422 +5645,422 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G39">
-    <cfRule type="cellIs" dxfId="210" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="209" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="208" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="207" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="206" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="205" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="204" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="203" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="202" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="201" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="200" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="199" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="198" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="197" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="196" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="195" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="194" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="193" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="192" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="191" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="190" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="189" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="188" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="187" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="186" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="185" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="184" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="183" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="182" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="181" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="180" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="179" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="178" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="177" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="176" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="175" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="174" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="173" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="172" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="171" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="170" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="169" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="168" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="167" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="166" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="165" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="164" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="163" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="162" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="161" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="160" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="159" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="158" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="157" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="156" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="155" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="154" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="153" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="152" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="151" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="150" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="149" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="148" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="147" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="146" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="145" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="144" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="143" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="142" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="141" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="140" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="139" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="138" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="137" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="136" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="135" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="134" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="133" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="132" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="131" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="130" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="129" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="128" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="127" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6065,9 +6091,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7216,12 +7242,22 @@
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="19"/>
+      <c r="B44" s="44">
+        <v>43570</v>
+      </c>
+      <c r="C44" s="62">
+        <v>42</v>
+      </c>
+      <c r="D44" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
+      <c r="G44" s="21">
+        <v>-17.489999999999998</v>
+      </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="22"/>
@@ -7235,12 +7271,22 @@
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="19"/>
+      <c r="B45" s="44">
+        <v>43571</v>
+      </c>
+      <c r="C45" s="62">
+        <v>43</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="G45" s="21">
+        <v>-17.46</v>
+      </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="22"/>
@@ -35099,7 +35145,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-1878.1799999999998</v>
+        <v>-1913.1299999999999</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -37029,638 +37075,648 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 E44:E45">
-    <cfRule type="cellIs" dxfId="126" priority="140" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42">
+    <cfRule type="cellIs" dxfId="130" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="125" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="124" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="123" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="122" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="121" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="120" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="119" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="118" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="117" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="116" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="115" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="114" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="113" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="112" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="111" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="110" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="109" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="108" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="107" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="106" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="105" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="104" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="103" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="102" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="101" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="100" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="99" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="98" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="97" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="96" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="95" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="94" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="93" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="92" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="91" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="90" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="89" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="88" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="87" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="86" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="85" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="84" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="83" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="82" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="81" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="80" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="79" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="78" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="77" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="76" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="75" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="74" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="73" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="72" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="71" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="70" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="69" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="68" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="67" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="66" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="65" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="64" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="63" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="62" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="61" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="60" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="59" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="58" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="57" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="56" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="55" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="54" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="53" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="51" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="49" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="48" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="47" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="45" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="44" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="43" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="42" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="41" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="39" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="38" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="37" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="35" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="34" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="32" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="31" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="29" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="28" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="27" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="26" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="24" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="22" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="21" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="110">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -336,6 +336,24 @@
   </si>
   <si>
     <t>Telekom Apr.</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 16.4.</t>
+  </si>
+  <si>
+    <t>80er Geburtstag I.Jungmichl</t>
+  </si>
+  <si>
+    <t>80er Geburtstag H.Straub</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune Wanderer24.4.</t>
+  </si>
+  <si>
+    <t>Anonyme Spende 24.4.2019</t>
+  </si>
+  <si>
+    <t>Luftballons Jubeläum</t>
   </si>
 </sst>
 </file>
@@ -697,7 +715,127 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="215">
+  <dxfs count="239">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2962,8 +3100,8 @@
   <dimension ref="A1:IK169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+      <pane ySplit="2" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3897,11 +4035,21 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="17"/>
+      <c r="A39" s="15">
+        <v>43585</v>
+      </c>
+      <c r="B39" s="16">
+        <v>36</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="17">
+        <v>180.3</v>
+      </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -3910,11 +4058,21 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="17"/>
+      <c r="A40" s="15">
+        <v>43585</v>
+      </c>
+      <c r="B40" s="16">
+        <v>37</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="17">
+        <v>178.1</v>
+      </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
@@ -3923,11 +4081,21 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="17"/>
+      <c r="A41" s="15">
+        <v>43585</v>
+      </c>
+      <c r="B41" s="16">
+        <v>38</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="17">
+        <v>45</v>
+      </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
@@ -3936,12 +4104,22 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="15">
+        <v>43585</v>
+      </c>
+      <c r="B42" s="63">
+        <v>39</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="18">
+        <v>300</v>
+      </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="19"/>
@@ -4765,11 +4943,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>2562.380000000001</v>
+        <v>2965.7800000000011</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>6441.580000000009</v>
+        <v>6741.580000000009</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -4808,11 +4986,11 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>11.260000000001128</v>
+        <v>16.160000000001219</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>4528.4500000000089</v>
+        <v>4785.120000000009</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -4850,7 +5028,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>7586.0900000000101</v>
+        <v>7847.6600000000099</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5644,431 +5822,441 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 E40:G40 F41:G48 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G39">
-    <cfRule type="cellIs" dxfId="214" priority="99" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G48 G42">
+    <cfRule type="cellIs" dxfId="238" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="213" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="212" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="211" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="230" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="229" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="228" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="227" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="226" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="225" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="224" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="223" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="cellIs" dxfId="222" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="221" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="220" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="219" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="218" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="217" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="216" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="215" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="cellIs" dxfId="214" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="213" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="212" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="211" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="210" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="209" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="cellIs" dxfId="208" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="207" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="206" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="205" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="204" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:F62">
+    <cfRule type="cellIs" dxfId="203" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="201" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="200" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="199" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:E7">
+    <cfRule type="cellIs" dxfId="198" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="cellIs" dxfId="197" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="cellIs" dxfId="196" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="195" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="194" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="193" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="192" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="191" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="190" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="cellIs" dxfId="189" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="188" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="187" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="186" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="185" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="184" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="183" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="182" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="181" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="180" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="179" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="178" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="177" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="176" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="175" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="174" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="173" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="172" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="171" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="170" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="169" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="168" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="167" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="166" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="165" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="164" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="163" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="162" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="161" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="160" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="159" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="158" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="157" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="156" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="155" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="210" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="209" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="208" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E42">
-    <cfRule type="cellIs" dxfId="207" priority="84" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D41:E41">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41 D43">
-    <cfRule type="cellIs" dxfId="206" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="205" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="204" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="203" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="202" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="201" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="200" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="199" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="198" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="197" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="196" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="195" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="194" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="193" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="192" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="191" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="190" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="189" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="188" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="187" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="186" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="185" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="184" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="183" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="182" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="181" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="180" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="179" priority="53" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="178" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="177" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="176" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="175" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="174" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="173" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="172" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="171" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="170" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="169" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="168" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="167" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="166" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="165" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="164" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="163" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="162" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="161" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="160" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="159" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="158" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="157" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="156" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="155" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="154" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="153" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="152" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="151" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="150" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="149" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="148" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="147" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="146" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="145" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="144" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="143" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="142" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="141" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="140" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="139" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="138" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="137" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="136" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="135" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="134" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="133" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="132" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="131" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D25:D31 D46 D48 D50 D53:D104 D3 D7:D10 D14 D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D25:D31 D46 D48 D50 D53:D104 D3 D7:D10 D14 D41">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:D52 D47 D49 D43:D45 D4:D6 D11:D13 D15:D20 D22:D24 D32:D41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:D52 D47 D49 D42:D45 D4:D6 D11:D13 D15:D20 D22:D24 D32:D40">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -6092,8 +6280,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7298,11 +7486,21 @@
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
+      <c r="B46" s="15">
+        <v>43585</v>
+      </c>
+      <c r="C46" s="16">
+        <v>44</v>
+      </c>
+      <c r="D46" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="17">
+        <v>-48.5</v>
+      </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -7317,11 +7515,21 @@
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="20"/>
+      <c r="B47" s="15">
+        <v>43585</v>
+      </c>
+      <c r="C47" s="62">
+        <v>45</v>
+      </c>
+      <c r="D47" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="20">
+        <v>-25</v>
+      </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
@@ -7334,11 +7542,21 @@
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
+      <c r="B48" s="15">
+        <v>43585</v>
+      </c>
+      <c r="C48" s="62">
+        <v>46</v>
+      </c>
+      <c r="D48" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="20">
+        <v>-25</v>
+      </c>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
@@ -7351,11 +7569,21 @@
     </row>
     <row r="49" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
+      <c r="B49" s="15">
+        <v>43585</v>
+      </c>
+      <c r="C49" s="63">
+        <v>47</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="20">
+        <v>-300</v>
+      </c>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
@@ -7366,12 +7594,22 @@
     </row>
     <row r="50" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="19"/>
+      <c r="B50" s="15">
+        <v>43585</v>
+      </c>
+      <c r="C50" s="62">
+        <v>48</v>
+      </c>
+      <c r="D50" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
+      <c r="G50" s="21">
+        <v>-43.33</v>
+      </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="22"/>
@@ -35141,11 +35379,11 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-2551.12</v>
+        <v>-2949.62</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-1913.1299999999999</v>
+        <v>-1956.4599999999998</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -37076,646 +37314,651 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42">
-    <cfRule type="cellIs" dxfId="130" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="148" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="147" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="146" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="cellIs" dxfId="145" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="144" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="143" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="142" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="141" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="140" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="139" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="138" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="137" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="136" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="135" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="134" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="133" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="132" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="131" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="130" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="129" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="128" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="127" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="126" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="125" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="124" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="123" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="122" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="121" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="120" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="119" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="118" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="117" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="116" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="115" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="114" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="113" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="112" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="111" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="110" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="109" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="108" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="107" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="106" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="105" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="104" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="103" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="102" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="101" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="100" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="99" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="98" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="97" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="96" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="95" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="94" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="93" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107:D107">
+    <cfRule type="cellIs" dxfId="92" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="91" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="90" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="89" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="88" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="87" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="86" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="85" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="84" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="cellIs" dxfId="83" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="82" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="81" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:D116">
+    <cfRule type="cellIs" dxfId="80" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="79" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117:D117">
+    <cfRule type="cellIs" dxfId="78" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="77" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="76" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:C120">
+    <cfRule type="cellIs" dxfId="75" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="74" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:C122">
+    <cfRule type="cellIs" dxfId="73" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:C121">
+    <cfRule type="cellIs" dxfId="72" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="71" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="70" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="69" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="68" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="67" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="66" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="65" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="64" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="63" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="62" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="61" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="60" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="59" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="58" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="57" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="56" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="55" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="54" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="53" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="52" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="51" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="50" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="49" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="48" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="47" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="46" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="45" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="44" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="43" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="42" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="41" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="40" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="39" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="38" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="37" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="36" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="35" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="34" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="33" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="32" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="31" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="30" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="29" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="28" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="27" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="26" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="25" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="129" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="128" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="127" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="126" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="125" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="124" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="123" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="122" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="121" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="120" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="119" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="118" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="117" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="116" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="115" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="114" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="113" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="112" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="111" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="110" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="109" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="108" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="107" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="106" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="105" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="104" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="103" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="102" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="101" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="100" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="99" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="98" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="97" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="96" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="95" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="94" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="93" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="92" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="91" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="90" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="89" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="88" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="86" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="85" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="84" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="83" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="82" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="81" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="80" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="79" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="78" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="77" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="76" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="75" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="74" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="73" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="72" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="71" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="70" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="69" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="68" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="66" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="65" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="64" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="62" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="61" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="60" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="58" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="57" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="56" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="55" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="54" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="53" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="52" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="50" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="49" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="48" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="47" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="46" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="42" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="41" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="39" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="23" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="19" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="15" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="111">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>Luftballons Jubeläum</t>
+  </si>
+  <si>
+    <t>Stadt Wabu  Miete Mai.2019</t>
   </si>
 </sst>
 </file>
@@ -715,82 +718,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="239">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="224">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3101,7 +3029,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4990,7 +4918,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>4785.120000000009</v>
+        <v>4394.8800000000092</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -5028,7 +4956,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>7847.6600000000099</v>
+        <v>7457.4200000000101</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5823,432 +5751,432 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G48 G42">
-    <cfRule type="cellIs" dxfId="238" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="237" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="236" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="235" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="230" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="229" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="228" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="227" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="226" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="225" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="224" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="223" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="222" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="221" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="220" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="219" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="218" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="217" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="216" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="215" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="214" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="213" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="212" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="211" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="210" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="209" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="208" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="207" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="206" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="205" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="204" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="203" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="201" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="200" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="199" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="198" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="197" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="196" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="195" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="194" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="193" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="192" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="191" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="190" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="189" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="188" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="187" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="186" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="185" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="184" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="183" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="182" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="181" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="180" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="179" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="178" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="177" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="176" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="175" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="174" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="173" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="172" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="171" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="170" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="169" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="168" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="167" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="166" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="165" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="164" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="163" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="162" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="161" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="160" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="159" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="158" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="157" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="156" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="155" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6280,8 +6208,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="2" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7619,12 +7547,22 @@
     </row>
     <row r="51" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="19"/>
+      <c r="B51" s="15">
+        <v>43587</v>
+      </c>
+      <c r="C51" s="62">
+        <v>49</v>
+      </c>
+      <c r="D51" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>21</v>
+      </c>
       <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
+      <c r="G51" s="21">
+        <v>-12</v>
+      </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="22"/>
@@ -7634,12 +7572,22 @@
     </row>
     <row r="52" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="19"/>
+      <c r="B52" s="15">
+        <v>43588</v>
+      </c>
+      <c r="C52" s="62">
+        <v>50</v>
+      </c>
+      <c r="D52" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="G52" s="21">
+        <v>-202</v>
+      </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="22"/>
@@ -7649,12 +7597,22 @@
     </row>
     <row r="53" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="19"/>
+      <c r="B53" s="15">
+        <v>43588</v>
+      </c>
+      <c r="C53" s="62">
+        <v>51</v>
+      </c>
+      <c r="D53" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="G53" s="21">
+        <v>-176.24</v>
+      </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="22"/>
@@ -35383,7 +35341,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-1956.4599999999998</v>
+        <v>-2346.6999999999998</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -37314,651 +37272,651 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42">
-    <cfRule type="cellIs" dxfId="154" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="cellIs" dxfId="133" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="132" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="131" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="130" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="129" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="128" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="127" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="126" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="125" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="124" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="123" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="122" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="121" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="120" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="119" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="118" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="117" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="116" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="115" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="114" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="113" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="112" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="111" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="110" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="109" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="108" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="107" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="106" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="105" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="104" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="103" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="102" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="101" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="100" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="99" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="98" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="97" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="95" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="93" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="92" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="91" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="90" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="87" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="86" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="85" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="84" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="83" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="82" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="81" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107:D107">
+    <cfRule type="cellIs" dxfId="80" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="79" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="78" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="77" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="76" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="75" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="74" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="73" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="72" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="cellIs" dxfId="71" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="70" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="69" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:D116">
+    <cfRule type="cellIs" dxfId="68" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="67" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117:D117">
+    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="65" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="64" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:C120">
+    <cfRule type="cellIs" dxfId="63" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="62" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:C122">
+    <cfRule type="cellIs" dxfId="61" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:C121">
+    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="59" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="58" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="57" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="55" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="54" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="53" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="52" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="51" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="50" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="49" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="48" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="47" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="46" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="45" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="44" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="43" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="42" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="38" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="17" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="15" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="148" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="147" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="146" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="145" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="144" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="143" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="142" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="141" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="140" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="139" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="138" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="137" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="136" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="135" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="134" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="133" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="132" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="131" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="130" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="129" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="128" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="127" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="126" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="125" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="124" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="123" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="122" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="121" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="120" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="119" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="118" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="117" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="116" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="115" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="114" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="113" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="112" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="111" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="110" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="109" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="108" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="107" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="106" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="105" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="104" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="103" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="102" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="101" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="100" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="99" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="98" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="97" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="96" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="95" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="94" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="93" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="92" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="91" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="90" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="89" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="88" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="87" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="86" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="85" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="84" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="83" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="82" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="81" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="80" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="79" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="78" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="77" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="76" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="75" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="74" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="73" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="72" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="71" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="70" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="69" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="68" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="67" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="66" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="65" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="64" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="63" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="62" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="61" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="60" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="59" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="58" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="57" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="56" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="55" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="54" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="53" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="52" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="51" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="50" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="49" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="48" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="47" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="46" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="45" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="44" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="43" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="42" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="41" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="40" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="39" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="38" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="37" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="36" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="35" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="34" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="33" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="32" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="31" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="30" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="29" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="28" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="27" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="26" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="25" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="116">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -357,6 +357,21 @@
   </si>
   <si>
     <t>Stadt Wabu  Miete Mai.2019</t>
+  </si>
+  <si>
+    <t>Telekom Mai</t>
+  </si>
+  <si>
+    <t>Abfallgebuehr</t>
+  </si>
+  <si>
+    <t>Stadt Wabu  Miete Juni 2019</t>
+  </si>
+  <si>
+    <t>AOK Buchung?</t>
+  </si>
+  <si>
+    <t>Telekom Juni</t>
   </si>
 </sst>
 </file>
@@ -718,7 +733,47 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="224">
+  <dxfs count="232">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3027,9 +3082,9 @@
   </sheetPr>
   <dimension ref="A1:IK169"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4055,12 +4110,22 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="19"/>
+      <c r="A43" s="15">
+        <v>43627</v>
+      </c>
+      <c r="B43" s="16">
+        <v>40</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E43" s="20"/>
-      <c r="F43" s="18"/>
+      <c r="F43" s="18">
+        <v>35.47</v>
+      </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
       <c r="I43" s="19"/>
@@ -4875,7 +4940,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>6741.580000000009</v>
+        <v>6777.0500000000093</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -4918,7 +4983,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>4394.8800000000092</v>
+        <v>3682.5700000000093</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -4956,7 +5021,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>7457.4200000000101</v>
+        <v>6745.1100000000106</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5751,440 +5816,435 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G48 G42">
-    <cfRule type="cellIs" dxfId="223" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="222" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="221" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="220" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="225" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="224" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="223" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="222" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="221" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="220" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="cellIs" dxfId="219" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="218" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="217" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="216" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="215" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="214" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="213" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="212" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="cellIs" dxfId="211" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="210" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="209" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="208" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="207" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="206" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="cellIs" dxfId="205" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="204" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="203" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="202" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="201" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:F62">
+    <cfRule type="cellIs" dxfId="200" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="199" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="198" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="197" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:E7">
+    <cfRule type="cellIs" dxfId="196" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="cellIs" dxfId="195" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="cellIs" dxfId="194" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="193" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="192" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="191" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="190" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="189" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="188" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="cellIs" dxfId="187" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="186" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="185" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="184" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="183" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="182" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="181" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="180" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="179" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="178" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="177" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="176" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="175" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="174" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="173" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="172" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="171" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="170" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="169" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="168" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="167" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="166" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="165" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="164" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="163" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="162" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="161" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="160" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="159" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="158" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="157" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="156" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="155" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="154" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="153" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="152" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="151" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="150" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="149" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E41">
+    <cfRule type="cellIs" dxfId="148" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="147" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="146" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="219" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="218" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="217" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="216" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="215" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="214" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="213" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="212" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="211" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="210" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="209" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="208" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="207" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="206" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="205" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="204" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="203" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="202" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="201" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="200" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="199" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="198" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="197" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="196" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="195" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="194" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="193" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="192" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="191" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="190" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="189" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="188" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="187" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="186" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="185" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="184" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="183" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="182" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="181" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="180" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="179" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="178" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="177" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="176" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="175" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="174" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="173" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="172" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="171" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="170" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="169" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="168" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="167" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="166" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="165" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="164" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="163" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="162" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="161" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="160" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="159" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="158" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="157" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="156" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="155" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="154" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="153" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="152" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="151" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="150" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="149" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="148" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="147" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="146" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="145" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="144" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="143" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="142" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="141" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="140" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="139" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="138" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D25:D31 D46 D48 D50 D53:D104 D3 D7:D10 D14 D41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D25:D31 D46 D48 D50 D53:D104 D3 D7:D10 D14 D41 D43">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:D52 D47 D49 D42:D45 D4:D6 D11:D13 D15:D20 D22:D24 D32:D40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:D52 D47 D49 D32:D40 D4:D6 D11:D13 D15:D20 D22:D24 D42 D44:D45">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -6207,9 +6267,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7622,12 +7682,22 @@
     </row>
     <row r="54" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="19"/>
+      <c r="B54" s="44">
+        <v>43602</v>
+      </c>
+      <c r="C54" s="62">
+        <v>52</v>
+      </c>
+      <c r="D54" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F54" s="20"/>
-      <c r="G54" s="21"/>
+      <c r="G54" s="21">
+        <v>-16.899999999999999</v>
+      </c>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="22"/>
@@ -7871,12 +7941,22 @@
     </row>
     <row r="55" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="19"/>
+      <c r="B55" s="15">
+        <v>43616</v>
+      </c>
+      <c r="C55" s="62">
+        <v>53</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
+      <c r="G55" s="21">
+        <v>-104.25</v>
+      </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="22"/>
@@ -7886,12 +7966,22 @@
     </row>
     <row r="56" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="19"/>
+      <c r="B56" s="15">
+        <v>43619</v>
+      </c>
+      <c r="C56" s="62">
+        <v>54</v>
+      </c>
+      <c r="D56" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>21</v>
+      </c>
       <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
+      <c r="G56" s="21">
+        <v>-12</v>
+      </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="22"/>
@@ -7901,12 +7991,22 @@
     </row>
     <row r="57" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="19"/>
+      <c r="B57" s="15">
+        <v>43620</v>
+      </c>
+      <c r="C57" s="62">
+        <v>55</v>
+      </c>
+      <c r="D57" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="F57" s="20"/>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>-202</v>
+      </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="22"/>
@@ -7916,12 +8016,22 @@
     </row>
     <row r="58" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="19"/>
+      <c r="B58" s="44">
+        <v>43634</v>
+      </c>
+      <c r="C58" s="62">
+        <v>56</v>
+      </c>
+      <c r="D58" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
+      <c r="G58" s="21">
+        <v>-16.899999999999999</v>
+      </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="22"/>
@@ -7931,12 +8041,22 @@
     </row>
     <row r="59" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="19"/>
+      <c r="B59" s="15">
+        <v>43640</v>
+      </c>
+      <c r="C59" s="62">
+        <v>57</v>
+      </c>
+      <c r="D59" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F59" s="20"/>
-      <c r="G59" s="21"/>
+      <c r="G59" s="21">
+        <v>-395.73</v>
+      </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="22"/>
@@ -35341,7 +35461,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-2346.6999999999998</v>
+        <v>-3094.48</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -37272,661 +37392,658 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42">
-    <cfRule type="cellIs" dxfId="137" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="133" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="137" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="136" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="135" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="134" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="133" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="132" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="131" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="130" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="129" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="128" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="127" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="126" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="125" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="124" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="123" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="122" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="121" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="120" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="119" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="118" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="117" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="116" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="115" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="114" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="113" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="112" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="111" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="109" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="108" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="107" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="106" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="105" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="104" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="103" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="102" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="101" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="100" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="99" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="98" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="97" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="96" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="95" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="94" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="93" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="92" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107:D107">
+    <cfRule type="cellIs" dxfId="91" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="90" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="89" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="88" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="87" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="85" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="84" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="83" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="cellIs" dxfId="82" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="81" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="80" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:D116">
+    <cfRule type="cellIs" dxfId="79" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="78" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117:D117">
+    <cfRule type="cellIs" dxfId="77" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="76" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="75" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:C120">
+    <cfRule type="cellIs" dxfId="74" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="73" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:C122">
+    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:C121">
+    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="67" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="66" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="65" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="64" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="63" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="62" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="61" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="60" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="59" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="58" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="57" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="56" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="55" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="54" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="52" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="51" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="50" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="45" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="44" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="43" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="42" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="41" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="40" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="39" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="38" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="37" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="36" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="35" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="34" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="33" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="31" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="30" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="29" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="28" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="27" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="26" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="24" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="23" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="22" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="21" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="132" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="131" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="130" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="129" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="128" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="127" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="126" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="125" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="124" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="123" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="122" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="121" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="120" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="119" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="118" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="117" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="116" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="115" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="114" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="113" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="112" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="111" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="110" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="109" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="108" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="107" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="106" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="105" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="104" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="103" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="102" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="101" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="100" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="99" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="98" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="97" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="95" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="93" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="92" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="91" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="90" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="87" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="86" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="85" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="84" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="83" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="82" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="81" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="80" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="79" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="78" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="77" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="76" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="75" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="74" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="73" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="72" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="71" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="70" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="69" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="68" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="67" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="65" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="64" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="63" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="62" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="61" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="59" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="58" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="57" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="55" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="54" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="53" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="52" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="51" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="50" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="49" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="48" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="47" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="46" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="45" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="44" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="43" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="42" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="38" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="17" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="15" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E56:E120 E3:E7 E9:E42 E44:E53">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E3:E7 E9:E42 E44:E120">
       <formula1>$M$1:$M$18</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E55">
-      <formula1>$K$1:$K$18</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="118">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -372,6 +372,12 @@
   </si>
   <si>
     <t>Telekom Juni</t>
+  </si>
+  <si>
+    <t>AWO Bundesverband</t>
+  </si>
+  <si>
+    <t>AZ Wasser 3/2019</t>
   </si>
 </sst>
 </file>
@@ -733,72 +739,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="232">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="219">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3082,9 +3023,9 @@
   </sheetPr>
   <dimension ref="A1:IK169"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4983,7 +4924,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>3682.5700000000093</v>
+        <v>3300.4700000000093</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -5021,7 +4962,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>6745.1100000000106</v>
+        <v>6363.0100000000102</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5816,427 +5757,427 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G48 G42">
-    <cfRule type="cellIs" dxfId="231" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="230" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="229" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="228" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="225" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="224" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="223" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="222" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="221" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="220" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="219" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="218" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="217" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="216" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="215" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="214" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="213" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="212" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="211" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="210" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="209" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="208" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="207" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="206" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="205" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="204" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="203" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="202" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="201" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="200" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="199" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="198" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="197" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="196" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="195" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="194" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="193" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="192" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="191" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="190" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="189" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="188" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="187" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="186" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="185" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="184" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="183" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="182" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="181" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="180" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="179" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="178" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="177" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="176" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="175" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="174" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="173" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="172" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="171" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="170" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="169" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="168" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="167" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="166" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="165" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="164" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="163" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="162" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="161" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="160" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="159" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="158" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="157" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="156" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="155" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="154" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="153" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="152" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="151" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="150" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="149" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="148" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="147" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="146" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6267,9 +6208,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8066,12 +8007,22 @@
     </row>
     <row r="60" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="19"/>
+      <c r="B60" s="15">
+        <v>43647</v>
+      </c>
+      <c r="C60" s="62">
+        <v>58</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
+      <c r="G60" s="21">
+        <v>-149.1</v>
+      </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="22"/>
@@ -8315,12 +8266,22 @@
     </row>
     <row r="61" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="19"/>
+      <c r="B61" s="15">
+        <v>43647</v>
+      </c>
+      <c r="C61" s="62">
+        <v>59</v>
+      </c>
+      <c r="D61" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>22</v>
+      </c>
       <c r="F61" s="20"/>
-      <c r="G61" s="21"/>
+      <c r="G61" s="21">
+        <v>-31</v>
+      </c>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="J61" s="22"/>
@@ -8564,12 +8525,22 @@
     </row>
     <row r="62" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="19"/>
+      <c r="B62" s="15">
+        <v>43649</v>
+      </c>
+      <c r="C62" s="62">
+        <v>60</v>
+      </c>
+      <c r="D62" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="F62" s="20"/>
-      <c r="G62" s="21"/>
+      <c r="G62" s="21">
+        <v>-202</v>
+      </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
       <c r="J62" s="22"/>
@@ -35461,7 +35432,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-3094.48</v>
+        <v>-3476.58</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -37391,653 +37362,653 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 A55:A83 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42">
-    <cfRule type="cellIs" dxfId="145" priority="158" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 A55:A83">
+    <cfRule type="cellIs" dxfId="129" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="144" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="127" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="126" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="125" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="124" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="123" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="122" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="121" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="120" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="119" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="118" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="117" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="116" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="115" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="114" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="113" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="112" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="111" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="110" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="109" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="108" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="107" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="106" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="105" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="104" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="103" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="102" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="101" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="100" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="99" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="98" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="97" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="96" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="95" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="94" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="93" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="92" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="91" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="90" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="89" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="88" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="87" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="86" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="85" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107:D107">
+    <cfRule type="cellIs" dxfId="84" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="83" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="82" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="81" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="80" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="79" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="78" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="77" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="76" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="cellIs" dxfId="75" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="74" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="73" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:D116">
+    <cfRule type="cellIs" dxfId="72" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="71" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117:D117">
+    <cfRule type="cellIs" dxfId="70" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="69" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="68" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:C120">
+    <cfRule type="cellIs" dxfId="67" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="66" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:C122">
+    <cfRule type="cellIs" dxfId="65" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:C121">
+    <cfRule type="cellIs" dxfId="64" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="63" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="62" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="61" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="60" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="59" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="58" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="57" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="56" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="55" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="54" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="53" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="52" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="51" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="49" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="48" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="47" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="46" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="45" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="44" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="43" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="42" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="41" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="39" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="38" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="37" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="35" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="34" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="32" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="31" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="29" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="28" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="27" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="26" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="25" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="23" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="22" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="20" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="17" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="16" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="14" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="13" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="10" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="137" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="136" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="135" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="134" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="133" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="132" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="131" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="130" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="129" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="128" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="127" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="126" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="125" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="124" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="123" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="122" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="121" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="120" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="119" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="118" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="117" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="116" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="115" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="114" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="113" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="112" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="111" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="109" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="108" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="107" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="106" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="105" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="104" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="103" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="102" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="101" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="100" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="99" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="98" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="97" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="96" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="95" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="94" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="93" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="92" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="91" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="90" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="89" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="88" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="87" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="85" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="84" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="83" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="82" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="81" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="80" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="79" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="78" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="77" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="76" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="75" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="74" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="73" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="67" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="66" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="65" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="64" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="63" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="62" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="61" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="60" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="59" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="58" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="57" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="56" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="55" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="54" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="52" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="51" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="50" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="45" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="44" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="43" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="42" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="41" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="40" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="39" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="38" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="37" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="36" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="35" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="34" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="33" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="31" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="30" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="29" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="28" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="27" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="26" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="24" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="23" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="22" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="21" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="129">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -368,9 +368,6 @@
     <t>Stadt Wabu  Miete Juni 2019</t>
   </si>
   <si>
-    <t>AOK Buchung?</t>
-  </si>
-  <si>
     <t>Telekom Juni</t>
   </si>
   <si>
@@ -378,6 +375,42 @@
   </si>
   <si>
     <t>AZ Wasser 3/2019</t>
+  </si>
+  <si>
+    <t>AOK Fehlbuchung</t>
+  </si>
+  <si>
+    <t>Spende Irion 4.6.</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 7.5.</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 21.5.</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 2.7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.6. AwoHausle 30er</t>
+  </si>
+  <si>
+    <t>70erFeier</t>
+  </si>
+  <si>
+    <t>Logo Ticket Einnahmen 7x60€</t>
+  </si>
+  <si>
+    <t>Weinholzner E. 80er Geb.</t>
+  </si>
+  <si>
+    <t>Fr.Lutz Trauerkarte</t>
+  </si>
+  <si>
+    <t>Weingart H. 90er Geb.</t>
+  </si>
+  <si>
+    <t>Fahrtkosten Alex</t>
   </si>
 </sst>
 </file>
@@ -739,7 +772,142 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="219">
+  <dxfs count="246">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3021,11 +3189,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IK169"/>
+  <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3495,7 +3663,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3519,7 +3687,9 @@
       <c r="H19" s="18"/>
       <c r="I19" s="19"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
@@ -4058,10 +4228,10 @@
         <v>40</v>
       </c>
       <c r="C43" s="57" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="18">
@@ -4074,12 +4244,22 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="19"/>
+      <c r="A44" s="15">
+        <v>43650</v>
+      </c>
+      <c r="B44" s="16">
+        <v>41</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E44" s="20"/>
-      <c r="F44" s="18"/>
+      <c r="F44" s="18">
+        <v>845</v>
+      </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="19"/>
@@ -4087,11 +4267,21 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
+      <c r="A45" s="15">
+        <v>43650</v>
+      </c>
+      <c r="B45" s="16">
+        <v>42</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="17">
+        <v>100</v>
+      </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -4100,11 +4290,21 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="17"/>
+      <c r="A46" s="15">
+        <v>43650</v>
+      </c>
+      <c r="B46" s="16">
+        <v>43</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="17">
+        <v>209.97</v>
+      </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
@@ -4113,11 +4313,21 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
+      <c r="A47" s="15">
+        <v>43650</v>
+      </c>
+      <c r="B47" s="16">
+        <v>44</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="17">
+        <v>144.96</v>
+      </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -4126,11 +4336,21 @@
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="20"/>
+      <c r="A48" s="15">
+        <v>43650</v>
+      </c>
+      <c r="B48" s="16">
+        <v>45</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="17">
+        <v>237.56</v>
+      </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -4139,11 +4359,21 @@
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="17"/>
+      <c r="A49" s="15">
+        <v>43650</v>
+      </c>
+      <c r="B49" s="16">
+        <v>46</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="17">
+        <v>821.55</v>
+      </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
@@ -4152,11 +4382,21 @@
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="20"/>
+      <c r="A50" s="15">
+        <v>43650</v>
+      </c>
+      <c r="B50" s="16">
+        <v>47</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="20">
+        <v>420</v>
+      </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
@@ -4877,11 +5117,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>2965.7800000000011</v>
+        <v>4899.8200000000006</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>6777.0500000000093</v>
+        <v>7622.0500000000093</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -4920,11 +5160,11 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>16.160000000001219</v>
+        <v>29.320000000000618</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>3300.4700000000093</v>
+        <v>4110.0000000000091</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -4962,7 +5202,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>6363.0100000000102</v>
+        <v>7185.7000000000098</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5752,441 +5992,454 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
+    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K170" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 E49:G49 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G48 G42">
-    <cfRule type="cellIs" dxfId="214" priority="108" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44">
+    <cfRule type="cellIs" dxfId="225" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="213" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="212" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="211" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="221" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="220" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="219" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="218" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="217" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="216" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="cellIs" dxfId="215" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="214" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="213" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="212" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="211" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="cellIs" dxfId="210" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="209" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="208" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="207" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="206" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:F62">
+    <cfRule type="cellIs" dxfId="205" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="204" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="203" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="202" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:E7">
+    <cfRule type="cellIs" dxfId="201" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="cellIs" dxfId="200" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="cellIs" dxfId="199" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="198" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="197" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="196" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="195" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="194" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="193" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="cellIs" dxfId="192" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="191" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="190" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="189" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="188" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="187" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="186" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="185" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="184" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="183" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="182" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="181" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="180" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="179" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="178" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="177" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="176" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="175" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="174" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="173" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="172" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="171" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="170" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="169" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="168" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="167" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="166" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="165" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="164" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="163" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="162" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="161" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="160" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="159" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="158" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="157" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="156" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="155" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="154" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E41">
+    <cfRule type="cellIs" dxfId="153" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="152" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="151" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="150" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="149" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="148" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="210" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="cellIs" dxfId="209" priority="89" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D45:E45">
+    <cfRule type="cellIs" dxfId="146" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="208" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="207" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="143" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="206" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="141" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="140" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="205" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="204" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="203" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="202" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="201" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="200" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="199" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="198" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="197" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="196" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="195" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="194" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="193" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="192" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="191" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="190" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="189" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="188" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="187" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="186" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="185" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="184" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="183" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="182" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="181" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="180" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="179" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="178" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="177" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="176" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="175" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="174" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="173" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="172" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="171" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="170" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="169" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="168" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="167" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="166" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="165" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="164" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="163" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="162" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="161" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="160" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="159" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="158" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="157" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="156" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="155" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="154" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="153" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="152" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="151" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="150" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="149" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="148" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="147" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="146" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="145" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="144" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="143" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="142" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="141" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="140" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="139" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="138" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="137" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="136" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="135" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="134" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="133" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="132" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="131" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="130" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D25:D31 D46 D48 D50 D53:D104 D3 D7:D10 D14 D41 D43">
-      <formula1>$K$1:$K$18</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:D52 D42:D44 D32:D40 D4:D6 D11:D13 D15:D20 D22:D24 D46:D49">
+      <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:D52 D47 D49 D32:D40 D4:D6 D11:D13 D15:D20 D22:D24 D42 D44:D45">
-      <formula1>$M$1:$M$18</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D7:D10 D3 D53:D104 D14 D45 D41 D25:D31">
+      <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -6209,8 +6462,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <pane ySplit="2" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6713,7 +6966,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6739,7 +6992,9 @@
       <c r="J19" s="22"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
@@ -7268,9 +7523,7 @@
         <v>33</v>
       </c>
       <c r="L40" s="2"/>
-      <c r="M40" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48"/>
@@ -7297,7 +7550,9 @@
         <v>34</v>
       </c>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="M41" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48"/>
@@ -7324,9 +7579,7 @@
         <v>35</v>
       </c>
       <c r="L42" s="2"/>
-      <c r="M42" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
@@ -7383,7 +7636,7 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7411,7 +7664,9 @@
         <v>38</v>
       </c>
       <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
+      <c r="M45" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48"/>
@@ -7438,9 +7693,7 @@
         <v>39</v>
       </c>
       <c r="L46" s="2"/>
-      <c r="M46" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48"/>
@@ -7467,7 +7720,9 @@
         <v>40</v>
       </c>
       <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
+      <c r="M47" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48"/>
@@ -7964,7 +8219,7 @@
         <v>56</v>
       </c>
       <c r="D58" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>22</v>
@@ -8014,7 +8269,7 @@
         <v>58</v>
       </c>
       <c r="D60" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E60" s="42" t="s">
         <v>14</v>
@@ -8273,7 +8528,7 @@
         <v>59</v>
       </c>
       <c r="D61" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E61" s="42" t="s">
         <v>22</v>
@@ -8784,12 +9039,22 @@
     </row>
     <row r="63" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="19"/>
+      <c r="B63" s="15">
+        <v>43650</v>
+      </c>
+      <c r="C63" s="62">
+        <v>61</v>
+      </c>
+      <c r="D63" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="F63" s="20"/>
-      <c r="G63" s="21"/>
+      <c r="G63" s="21">
+        <v>-35.47</v>
+      </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="22"/>
@@ -9033,11 +9298,21 @@
     </row>
     <row r="64" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="20"/>
+      <c r="B64" s="15">
+        <v>43650</v>
+      </c>
+      <c r="C64" s="63">
+        <v>62</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="20">
+        <v>-845</v>
+      </c>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
@@ -9282,11 +9557,21 @@
     </row>
     <row r="65" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="20"/>
+      <c r="B65" s="15">
+        <v>43650</v>
+      </c>
+      <c r="C65" s="63">
+        <v>63</v>
+      </c>
+      <c r="D65" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="20">
+        <v>-96.17</v>
+      </c>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
@@ -9531,11 +9816,21 @@
     </row>
     <row r="66" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="20"/>
+      <c r="B66" s="15">
+        <v>43650</v>
+      </c>
+      <c r="C66" s="63">
+        <v>64</v>
+      </c>
+      <c r="D66" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="20">
+        <v>-53.66</v>
+      </c>
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
@@ -9780,11 +10075,21 @@
     </row>
     <row r="67" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
+      <c r="B67" s="15">
+        <v>43650</v>
+      </c>
+      <c r="C67" s="63">
+        <v>65</v>
+      </c>
+      <c r="D67" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="20">
+        <v>-68.760000000000005</v>
+      </c>
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
@@ -10029,11 +10334,21 @@
     </row>
     <row r="68" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="20"/>
+      <c r="B68" s="15">
+        <v>43650</v>
+      </c>
+      <c r="C68" s="63">
+        <v>66</v>
+      </c>
+      <c r="D68" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="20">
+        <v>-282.29000000000002</v>
+      </c>
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
@@ -10278,11 +10593,21 @@
     </row>
     <row r="69" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="20"/>
+      <c r="B69" s="15">
+        <v>43648</v>
+      </c>
+      <c r="C69" s="63">
+        <v>67</v>
+      </c>
+      <c r="D69" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="20">
+        <v>-25</v>
+      </c>
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
@@ -10527,11 +10852,21 @@
     </row>
     <row r="70" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="20"/>
+      <c r="B70" s="15">
+        <v>43648</v>
+      </c>
+      <c r="C70" s="63">
+        <v>68</v>
+      </c>
+      <c r="D70" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="20">
+        <v>-25</v>
+      </c>
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
@@ -10776,10 +11111,21 @@
     </row>
     <row r="71" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="42"/>
+      <c r="B71" s="15">
+        <v>43648</v>
+      </c>
+      <c r="C71" s="63">
+        <v>69</v>
+      </c>
+      <c r="D71" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="20">
+        <v>-25</v>
+      </c>
       <c r="G71" s="21"/>
       <c r="H71" s="20"/>
       <c r="I71" s="21"/>
@@ -11024,11 +11370,21 @@
     </row>
     <row r="72" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="20"/>
+      <c r="B72" s="15">
+        <v>43650</v>
+      </c>
+      <c r="C72" s="62">
+        <v>70</v>
+      </c>
+      <c r="D72" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="20">
+        <v>-500</v>
+      </c>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
@@ -35428,11 +35784,11 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-2949.62</v>
+        <v>-4870.5</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-3476.58</v>
+        <v>-3512.0499999999997</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -37353,6 +37709,7 @@
       <c r="C235" s="18"/>
       <c r="I235" s="18"/>
       <c r="K235" s="2"/>
+      <c r="M235" s="2"/>
     </row>
     <row r="236" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="18"/>
@@ -37362,659 +37719,669 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 E65 E71 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 A55:A83">
-    <cfRule type="cellIs" dxfId="129" priority="162" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 A55:A83">
+    <cfRule type="cellIs" dxfId="138" priority="173" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="128" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="133" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="132" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="131" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="130" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="129" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="128" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="127" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="126" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="125" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="124" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="123" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="122" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="121" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="120" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="119" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="118" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="117" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="116" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="115" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="114" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="113" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="112" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="111" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="110" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="109" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="108" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="107" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="106" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="105" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="104" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="103" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="102" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="101" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="100" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="99" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107:D107">
+    <cfRule type="cellIs" dxfId="98" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="97" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="96" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="95" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="94" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="93" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="92" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="91" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="90" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="cellIs" dxfId="89" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="88" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:D116">
+    <cfRule type="cellIs" dxfId="86" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="85" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117:D117">
+    <cfRule type="cellIs" dxfId="84" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="83" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="82" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:C120">
+    <cfRule type="cellIs" dxfId="81" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="80" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:C122">
+    <cfRule type="cellIs" dxfId="79" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:C121">
+    <cfRule type="cellIs" dxfId="78" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="77" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="76" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="75" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="74" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="73" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="72" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="71" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="70" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="69" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="68" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="66" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="65" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="64" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="62" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="61" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="60" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="59" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="58" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="57" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="56" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="55" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="54" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="53" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="51" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="49" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="47" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="46" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="45" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="44" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="43" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="42" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="41" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="40" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="38" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="37" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="35" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="34" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="33" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="32" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="19" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="127" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="126" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="125" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="124" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="123" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="122" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="121" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="120" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="119" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="118" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="117" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="116" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="115" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="114" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="113" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="112" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="111" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="110" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="109" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="108" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="107" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="106" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="105" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="104" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="103" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="102" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="101" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="100" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="99" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="98" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="97" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="96" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="95" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="94" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="93" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="92" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="91" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="90" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="89" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="88" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="87" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="86" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="85" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="84" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="83" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="82" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="81" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="80" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="79" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="78" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="77" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="76" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="75" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="74" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="73" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="72" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="71" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="70" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="69" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="68" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="67" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="66" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="65" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="64" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="63" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="62" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="61" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="60" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="59" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="58" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="57" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="56" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="55" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="54" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="53" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="52" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="51" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="49" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="48" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="47" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="46" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="45" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="44" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="43" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="42" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="41" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="39" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="38" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="37" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="35" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="34" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="32" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="31" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="29" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="28" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="27" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="26" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="25" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="23" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="22" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="20" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="17" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="16" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="14" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="13" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="10" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E3:E7 E9:E42 E44:E120">
-      <formula1>$M$1:$M$18</formula1>
+      <formula1>$M$1:$M$19</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="137">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -412,6 +412,30 @@
   <si>
     <t>Fahrtkosten Alex</t>
   </si>
+  <si>
+    <t>Anonyme Spende</t>
+  </si>
+  <si>
+    <t>Spende M.Lutz</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 9.7.</t>
+  </si>
+  <si>
+    <t>Porto W.Schwarz 29.4.</t>
+  </si>
+  <si>
+    <t>Stadt Wabu  Miete Juli 2019</t>
+  </si>
+  <si>
+    <t>Spende Weinholzner Hasthaus zum Löwen</t>
+  </si>
+  <si>
+    <t>Rundfunkgeb. 06/2019-08/2019</t>
+  </si>
+  <si>
+    <t>Telekom Juli</t>
+  </si>
 </sst>
 </file>
 
@@ -772,42 +796,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="246">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="239">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3192,8 +3181,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4405,11 +4394,21 @@
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
+      <c r="A51" s="15">
+        <v>43653</v>
+      </c>
+      <c r="B51" s="16">
+        <v>48</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="20">
+        <v>108</v>
+      </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
@@ -4418,11 +4417,21 @@
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="17"/>
+      <c r="A52" s="15">
+        <v>43654</v>
+      </c>
+      <c r="B52" s="16">
+        <v>49</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="20">
+        <v>150</v>
+      </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
@@ -4431,11 +4440,21 @@
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="17"/>
+      <c r="A53" s="15">
+        <v>43664</v>
+      </c>
+      <c r="B53" s="16">
+        <v>50</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="17">
+        <v>140.86000000000001</v>
+      </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
@@ -4444,12 +4463,22 @@
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="42"/>
+      <c r="A54" s="15">
+        <v>43657</v>
+      </c>
+      <c r="B54" s="16">
+        <v>51</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E54" s="20"/>
-      <c r="F54" s="18"/>
+      <c r="F54" s="18">
+        <v>50</v>
+      </c>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
       <c r="I54" s="19"/>
@@ -4457,12 +4486,22 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
+      <c r="A55" s="15">
+        <v>43664</v>
+      </c>
+      <c r="B55" s="63">
+        <v>52</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="18">
+        <v>335</v>
+      </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="19"/>
@@ -5117,11 +5156,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>4899.8200000000006</v>
+        <v>5298.68</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>7622.0500000000093</v>
+        <v>8007.0500000000093</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -5160,11 +5199,11 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>29.320000000000618</v>
+        <v>31.020000000000437</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>4110.0000000000091</v>
+        <v>4448.6100000000097</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -5202,7 +5241,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>7185.7000000000098</v>
+        <v>7526.0100000000102</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -5999,446 +6038,426 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 D59:G59 G54:G57 G50 F51:G51 E52:G52 F53:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44">
-    <cfRule type="cellIs" dxfId="225" priority="121" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 D59:G59 G54:G57 G50 F51:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44">
+    <cfRule type="cellIs" dxfId="238" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="224" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="223" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="222" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="221" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="220" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="cellIs" dxfId="231" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="230" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="229" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="220" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="219" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:F62">
+    <cfRule type="cellIs" dxfId="218" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="217" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="216" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="215" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:E7">
+    <cfRule type="cellIs" dxfId="214" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="cellIs" dxfId="213" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="cellIs" dxfId="212" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="211" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="210" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="209" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="208" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="207" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="206" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="cellIs" dxfId="205" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="204" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="203" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="202" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="201" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="200" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="199" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="198" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="197" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="196" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="195" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="194" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="193" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="192" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="191" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="190" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="189" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="188" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="187" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="186" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="185" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="184" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="183" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="182" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="181" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="180" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="179" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="178" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="177" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="176" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="175" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="174" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="173" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="172" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="171" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="170" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="169" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="168" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="167" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E41">
+    <cfRule type="cellIs" dxfId="166" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="165" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="164" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="163" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="162" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="161" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="160" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:E45">
+    <cfRule type="cellIs" dxfId="159" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="158" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="157" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="156" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="155" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="154" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="153" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="152" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="219" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="218" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="217" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="216" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="cellIs" dxfId="215" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="214" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="213" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="212" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="211" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="210" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="209" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="208" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="207" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="206" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="205" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="204" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="203" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="202" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="201" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="200" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="199" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="198" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="197" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="196" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="195" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="194" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="193" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="192" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="191" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="190" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="189" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="188" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="187" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="186" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="185" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="184" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="183" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="182" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="181" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="180" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="179" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="178" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="177" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="176" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="175" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="174" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="173" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="172" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="171" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="170" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="169" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="168" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="167" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="166" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="165" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="164" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="163" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="162" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="161" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="160" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="159" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="158" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="157" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="156" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="155" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="154" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="153" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="152" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="151" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="150" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="149" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="148" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="147" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="146" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="145" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="144" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="143" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="142" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="141" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="140" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="139" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51:D52 D42:D44 D32:D40 D4:D6 D11:D13 D15:D20 D22:D24 D46:D49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D4:D6 D11:D13 D15:D20 D22:D24 D53 D55">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D7:D10 D3 D53:D104 D14 D45 D41 D25:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D7:D10 D3 D25:D31 D14 D45 D41 D56:D104">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -6462,8 +6481,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
+      <pane ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11629,11 +11648,21 @@
     </row>
     <row r="73" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="48"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
+      <c r="B73" s="15">
+        <v>43664</v>
+      </c>
+      <c r="C73" s="63">
+        <v>71</v>
+      </c>
+      <c r="D73" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="20">
+        <v>-41.16</v>
+      </c>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
@@ -11878,11 +11907,21 @@
     </row>
     <row r="74" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="20"/>
+      <c r="B74" s="15">
+        <v>43664</v>
+      </c>
+      <c r="C74" s="62">
+        <v>72</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="20">
+        <v>-21</v>
+      </c>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
@@ -12127,12 +12166,22 @@
     </row>
     <row r="75" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="48"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="19"/>
+      <c r="B75" s="15">
+        <v>43651</v>
+      </c>
+      <c r="C75" s="62">
+        <v>73</v>
+      </c>
+      <c r="D75" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="42" t="s">
+        <v>21</v>
+      </c>
       <c r="F75" s="20"/>
-      <c r="G75" s="21"/>
+      <c r="G75" s="21">
+        <v>-12</v>
+      </c>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="22"/>
@@ -12376,12 +12425,22 @@
     </row>
     <row r="76" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="48"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="19"/>
+      <c r="B76" s="44">
+        <v>43661</v>
+      </c>
+      <c r="C76" s="62">
+        <v>74</v>
+      </c>
+      <c r="D76" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F76" s="20"/>
-      <c r="G76" s="21"/>
+      <c r="G76" s="21">
+        <v>-17.489999999999998</v>
+      </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="22"/>
@@ -12625,12 +12684,22 @@
     </row>
     <row r="77" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="19"/>
+      <c r="B77" s="44">
+        <v>43663</v>
+      </c>
+      <c r="C77" s="62">
+        <v>75</v>
+      </c>
+      <c r="D77" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F77" s="20"/>
-      <c r="G77" s="21"/>
+      <c r="G77" s="21">
+        <v>-16.899999999999999</v>
+      </c>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="22"/>
@@ -12874,11 +12943,21 @@
     </row>
     <row r="78" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="48"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="20"/>
+      <c r="B78" s="15">
+        <v>43664</v>
+      </c>
+      <c r="C78" s="63">
+        <v>76</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="20">
+        <v>-335</v>
+      </c>
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
@@ -35784,11 +35863,11 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-4870.5</v>
+        <v>-5267.66</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-3512.0499999999997</v>
+        <v>-3558.4399999999996</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -37720,667 +37799,662 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 A55:A83">
-    <cfRule type="cellIs" dxfId="138" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="137" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="143" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="142" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="141" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="140" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="139" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="138" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="137" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="136" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="135" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="134" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="133" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="132" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="131" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="130" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="129" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="128" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="127" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="126" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="125" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="124" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="123" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="122" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="121" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="120" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="119" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="118" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="117" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="116" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="115" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107:D107">
+    <cfRule type="cellIs" dxfId="114" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="113" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="112" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="111" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="110" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="109" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="108" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="107" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="106" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="cellIs" dxfId="105" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="104" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="103" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:D116">
+    <cfRule type="cellIs" dxfId="102" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="101" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117:D117">
+    <cfRule type="cellIs" dxfId="100" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="99" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="98" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:C120">
+    <cfRule type="cellIs" dxfId="97" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="96" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:C122">
+    <cfRule type="cellIs" dxfId="95" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:C121">
+    <cfRule type="cellIs" dxfId="94" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="93" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="92" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="91" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="90" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="89" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="88" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="87" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="86" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="85" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="84" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="83" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="82" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="81" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="80" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="79" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="78" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="77" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="76" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="75" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="74" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="73" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="72" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="71" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="70" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="69" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="68" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="67" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="66" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="65" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="64" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="63" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="62" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="61" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="60" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="59" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="58" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="57" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="56" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="55" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="54" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="53" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="52" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="51" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="50" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="49" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="48" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="47" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="46" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="45" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="44" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="43" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="42" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="41" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="40" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="39" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="38" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="37" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="36" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="35" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="34" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="33" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="32" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="31" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="30" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="29" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="28" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="25" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="24" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="20" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="133" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="132" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="131" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="130" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="129" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="128" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="127" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="126" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="125" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="124" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="123" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="122" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="121" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="120" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="119" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="118" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="117" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="116" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="115" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="114" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="113" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="112" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="111" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="110" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="109" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="108" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="107" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="106" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="105" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="104" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="103" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="102" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="101" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="100" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="99" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="98" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="97" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="96" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="95" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="94" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="93" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="92" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="91" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="90" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="89" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="88" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="86" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="85" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="84" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="83" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="82" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="81" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="80" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="79" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="78" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="77" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="76" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="75" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="74" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="73" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="72" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="71" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="70" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="69" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="68" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="66" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="65" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="64" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="62" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="61" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="60" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="59" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="58" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="57" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="56" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="55" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="54" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="53" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="51" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="49" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="47" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="46" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="45" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="44" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="43" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="42" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="41" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="40" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="38" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="37" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="35" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="34" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="33" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="32" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="19" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E3:E7 E9:E42 E44:E120">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E3:E7 E9:E42 E44:E73 E75:E120">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="148">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -428,13 +428,46 @@
     <t>Stadt Wabu  Miete Juli 2019</t>
   </si>
   <si>
-    <t>Spende Weinholzner Hasthaus zum Löwen</t>
-  </si>
-  <si>
     <t>Rundfunkgeb. 06/2019-08/2019</t>
   </si>
   <si>
     <t>Telekom Juli</t>
+  </si>
+  <si>
+    <t>Spende Weinholzner Gasthaus zum Löwen</t>
+  </si>
+  <si>
+    <t>Awo Bund Rueckverteilung</t>
+  </si>
+  <si>
+    <t>Stadt Wabu  Miete Aug 2019</t>
+  </si>
+  <si>
+    <t>Telekom Aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awo Ausz aus Kapitalfond </t>
+  </si>
+  <si>
+    <t>H.Löffler Trauerkarte</t>
+  </si>
+  <si>
+    <t>J.Schafberger 80er Geb.</t>
+  </si>
+  <si>
+    <t>F.Grauer 80er Geb.</t>
+  </si>
+  <si>
+    <t>D.Schwarzbach 80er Geb.</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 23.7.</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 5.8.</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 20.8.</t>
   </si>
 </sst>
 </file>
@@ -796,7 +829,82 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="239">
+  <dxfs count="254">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3181,8 +3289,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
+      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4470,7 +4578,7 @@
         <v>51</v>
       </c>
       <c r="C54" s="57" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>13</v>
@@ -4509,12 +4617,22 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="42"/>
+      <c r="A56" s="15">
+        <v>43670</v>
+      </c>
+      <c r="B56" s="43">
+        <v>53</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>27</v>
+      </c>
       <c r="E56" s="20"/>
-      <c r="F56" s="18"/>
+      <c r="F56" s="18">
+        <v>1544.25</v>
+      </c>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
       <c r="I56" s="19"/>
@@ -4522,12 +4640,22 @@
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="42"/>
+      <c r="A57" s="15">
+        <v>43697</v>
+      </c>
+      <c r="B57" s="16">
+        <v>54</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E57" s="20"/>
-      <c r="F57" s="18"/>
+      <c r="F57" s="18">
+        <v>10000</v>
+      </c>
       <c r="G57" s="60"/>
       <c r="H57" s="18"/>
       <c r="I57" s="19"/>
@@ -4535,11 +4663,21 @@
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="17"/>
+      <c r="A58" s="15">
+        <v>43699</v>
+      </c>
+      <c r="B58" s="16">
+        <v>55</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="17">
+        <v>175.93</v>
+      </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
@@ -4548,11 +4686,21 @@
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="17"/>
+      <c r="A59" s="15">
+        <v>43699</v>
+      </c>
+      <c r="B59" s="16">
+        <v>56</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="17">
+        <v>151.21</v>
+      </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
@@ -4561,11 +4709,21 @@
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="17"/>
+      <c r="A60" s="15">
+        <v>43699</v>
+      </c>
+      <c r="B60" s="16">
+        <v>57</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="17">
+        <v>204.13</v>
+      </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
@@ -4574,12 +4732,21 @@
       <c r="K60" s="2"/>
     </row>
     <row r="61" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="18"/>
+      <c r="A61" s="15">
+        <v>43699</v>
+      </c>
+      <c r="B61" s="63">
+        <v>58</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="17">
+        <v>265</v>
+      </c>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="19"/>
@@ -5156,11 +5323,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>5298.68</v>
+        <v>5829.9500000000007</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>8007.0500000000093</v>
+        <v>19816.30000000001</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -5199,11 +5366,11 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>31.020000000000437</v>
+        <v>38.320000000000618</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>4448.6100000000097</v>
+        <v>16026.840000000011</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -5241,7 +5408,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>7526.0100000000102</v>
+        <v>19111.540000000012</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -6038,427 +6205,440 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 D59:G59 G54:G57 G50 F51:G53 E58:G58 D61:G61 E60:G60 D63:G104 G62 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44">
-    <cfRule type="cellIs" dxfId="238" priority="126" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D63:G104 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62">
+    <cfRule type="cellIs" dxfId="234" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="237" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="236" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="235" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="234" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="233" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="231" priority="96" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="226" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:F62">
+    <cfRule type="cellIs" dxfId="223" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="222" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="221" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="220" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:E7">
+    <cfRule type="cellIs" dxfId="219" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="cellIs" dxfId="218" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="cellIs" dxfId="217" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="216" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="215" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="214" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="213" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="212" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="211" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="cellIs" dxfId="210" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="209" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="208" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="207" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="206" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="205" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="204" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="203" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="202" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="201" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="200" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="199" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="198" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="197" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="196" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="195" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="194" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="193" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="192" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="191" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="190" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="189" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="188" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="187" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="186" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="185" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="184" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="183" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="182" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="181" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="180" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="179" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="178" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="177" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="176" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="175" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="174" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="173" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="172" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E41">
+    <cfRule type="cellIs" dxfId="171" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="170" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="169" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="168" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="167" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="166" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="165" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:E45">
+    <cfRule type="cellIs" dxfId="164" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="163" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="162" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="161" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="160" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="159" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="158" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="157" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="156" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="155" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="154" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="153" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="152" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="230" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="229" priority="93" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="150" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="220" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="cellIs" dxfId="148" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="219" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="218" priority="80" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="146" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="217" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="216" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="215" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="214" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="213" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="212" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="211" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="210" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="209" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="208" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="207" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="206" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="205" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="204" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="203" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="202" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="201" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="200" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="199" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="198" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="197" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="196" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="195" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="194" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="193" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="192" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="191" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="190" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="189" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="188" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="187" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="186" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="185" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="184" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="183" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="182" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="181" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="180" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="179" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="178" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="177" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="176" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="175" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="174" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="173" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="172" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="171" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="170" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="169" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="168" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="167" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="166" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="165" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="164" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="163" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="162" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="161" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="160" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="159" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="158" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="157" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="156" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="155" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="154" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="153" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="152" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D4:D6 D11:D13 D15:D20 D22:D24 D53 D55">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D4:D6 D11:D13 D15:D20 D22:D24 D53 D55 D57:D61">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D7:D10 D3 D25:D31 D14 D45 D41 D56:D104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D7:D10 D3 D25:D31 D14 D45 D41 D62:D104">
       <formula1>$K$1:$K$19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56">
+      <formula1>$K$1:$K$18</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -6480,9 +6660,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12432,7 +12612,7 @@
         <v>74</v>
       </c>
       <c r="D76" s="57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>22</v>
@@ -12691,7 +12871,7 @@
         <v>75</v>
       </c>
       <c r="D77" s="57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>22</v>
@@ -13202,12 +13382,22 @@
     </row>
     <row r="79" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="48"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="19"/>
+      <c r="B79" s="15">
+        <v>43678</v>
+      </c>
+      <c r="C79" s="62">
+        <v>77</v>
+      </c>
+      <c r="D79" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="F79" s="20"/>
-      <c r="G79" s="21"/>
+      <c r="G79" s="21">
+        <v>-160</v>
+      </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="22"/>
@@ -13451,12 +13641,22 @@
     </row>
     <row r="80" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="48"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="19"/>
+      <c r="B80" s="15">
+        <v>43678</v>
+      </c>
+      <c r="C80" s="62">
+        <v>78</v>
+      </c>
+      <c r="D80" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="F80" s="20"/>
-      <c r="G80" s="21"/>
+      <c r="G80" s="21">
+        <v>-42</v>
+      </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="22"/>
@@ -13700,12 +13900,22 @@
     </row>
     <row r="81" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="48"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="19"/>
+      <c r="B81" s="15">
+        <v>43678</v>
+      </c>
+      <c r="C81" s="62">
+        <v>79</v>
+      </c>
+      <c r="D81" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" s="42" t="s">
+        <v>21</v>
+      </c>
       <c r="F81" s="20"/>
-      <c r="G81" s="21"/>
+      <c r="G81" s="21">
+        <v>-12</v>
+      </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="22"/>
@@ -13949,12 +14159,22 @@
     </row>
     <row r="82" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="48"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="19"/>
+      <c r="B82" s="44">
+        <v>43693</v>
+      </c>
+      <c r="C82" s="62">
+        <v>80</v>
+      </c>
+      <c r="D82" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F82" s="20"/>
-      <c r="G82" s="21"/>
+      <c r="G82" s="21">
+        <v>-17.02</v>
+      </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="22"/>
@@ -14198,10 +14418,21 @@
     </row>
     <row r="83" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="48"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="62"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="19"/>
+      <c r="B83" s="44">
+        <v>43682</v>
+      </c>
+      <c r="C83" s="62">
+        <v>81</v>
+      </c>
+      <c r="D83" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="E83" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="20">
+        <v>-25</v>
+      </c>
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
@@ -14446,11 +14677,21 @@
     </row>
     <row r="84" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="48"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="20"/>
+      <c r="B84" s="44">
+        <v>43682</v>
+      </c>
+      <c r="C84" s="62">
+        <v>82</v>
+      </c>
+      <c r="D84" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="E84" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="20">
+        <v>-25</v>
+      </c>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
@@ -14695,11 +14936,21 @@
     </row>
     <row r="85" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="48"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="40"/>
+      <c r="B85" s="44">
+        <v>43682</v>
+      </c>
+      <c r="C85" s="62">
+        <v>83</v>
+      </c>
+      <c r="D85" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="20">
+        <v>-25</v>
+      </c>
       <c r="G85" s="21"/>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
@@ -14944,11 +15195,21 @@
     </row>
     <row r="86" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="48"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="20"/>
+      <c r="B86" s="44">
+        <v>43682</v>
+      </c>
+      <c r="C86" s="62">
+        <v>84</v>
+      </c>
+      <c r="D86" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="20">
+        <v>-25</v>
+      </c>
       <c r="G86" s="21"/>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
@@ -15193,11 +15454,21 @@
     </row>
     <row r="87" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="48"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="20"/>
+      <c r="B87" s="15">
+        <v>43699</v>
+      </c>
+      <c r="C87" s="16">
+        <v>85</v>
+      </c>
+      <c r="D87" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="E87" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="20">
+        <v>-66.03</v>
+      </c>
       <c r="G87" s="21"/>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
@@ -15442,11 +15713,21 @@
     </row>
     <row r="88" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="48"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="20"/>
+      <c r="B88" s="15">
+        <v>43699</v>
+      </c>
+      <c r="C88" s="16">
+        <v>86</v>
+      </c>
+      <c r="D88" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="20">
+        <v>-40.51</v>
+      </c>
       <c r="G88" s="21"/>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
@@ -15691,11 +15972,21 @@
     </row>
     <row r="89" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="48"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="20"/>
+      <c r="B89" s="15">
+        <v>43699</v>
+      </c>
+      <c r="C89" s="16">
+        <v>87</v>
+      </c>
+      <c r="D89" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="20">
+        <v>-52.43</v>
+      </c>
       <c r="G89" s="21"/>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
@@ -15940,11 +16231,21 @@
     </row>
     <row r="90" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="48"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="20"/>
+      <c r="B90" s="15">
+        <v>43699</v>
+      </c>
+      <c r="C90" s="63">
+        <v>88</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" s="20">
+        <v>-265</v>
+      </c>
       <c r="G90" s="21"/>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
@@ -35863,11 +36164,11 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-5267.66</v>
+        <v>-5791.63</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-3558.4399999999996</v>
+        <v>-3789.4599999999996</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -37799,663 +38100,666 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 A55:A83">
-    <cfRule type="cellIs" dxfId="151" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="150" priority="168" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="181" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="137" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="136" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="129" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="128" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="127" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="126" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="125" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="124" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="123" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="122" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="121" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="120" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="119" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="118" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="117" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="116" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="115" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107:D107">
+    <cfRule type="cellIs" dxfId="114" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="113" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="112" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="111" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="110" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="109" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="108" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="107" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="106" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="cellIs" dxfId="105" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="104" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="103" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:D116">
+    <cfRule type="cellIs" dxfId="102" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="101" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117:D117">
+    <cfRule type="cellIs" dxfId="100" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="99" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="98" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:C120">
+    <cfRule type="cellIs" dxfId="97" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="96" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:C122">
+    <cfRule type="cellIs" dxfId="95" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:C121">
+    <cfRule type="cellIs" dxfId="94" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="93" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="92" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="91" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="90" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="89" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="88" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="87" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="86" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="85" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="84" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="83" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="82" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="81" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="80" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="79" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="78" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="77" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="76" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="75" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="74" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="73" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="72" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="71" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="70" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="69" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="68" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="66" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="65" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="64" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="62" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="61" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="60" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="58" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="57" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="56" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="55" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="54" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="53" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="52" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="50" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="49" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="48" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="47" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="46" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="39" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="24" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="19" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="15" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="143" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="142" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="141" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="140" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="139" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="138" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="137" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="136" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="135" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="134" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="133" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="132" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="131" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="130" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="129" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="128" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="127" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="126" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="125" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="124" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="123" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="122" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="121" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="120" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="119" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="118" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="117" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="116" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="115" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="114" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="113" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="112" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="111" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="110" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="109" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="108" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="107" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="106" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="105" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="104" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="103" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="102" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="101" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="100" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="99" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="98" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="97" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="96" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="95" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="94" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="93" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="92" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="91" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="90" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="89" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="88" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="87" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="86" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="85" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="84" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="83" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="82" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="81" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="80" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="79" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="78" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="77" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="76" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="75" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="74" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="73" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="72" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="71" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="70" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="69" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="68" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="67" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="66" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="65" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="64" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="63" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="62" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="61" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="60" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="59" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="58" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="57" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="56" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="55" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="54" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="53" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="52" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="51" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="50" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="49" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="48" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="47" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="46" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="45" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="44" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="43" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="42" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="41" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="40" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="39" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="38" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="37" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="36" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="35" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="34" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="33" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="32" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="31" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="30" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="29" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="28" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="25" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="24" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="20" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E3:E7 E9:E42 E44:E73 E75:E120">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E3:E7 E9:E42 E44:E73 E75:E86 E90:E120">
       <formula1>$M$1:$M$19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87:E89">
+      <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="151">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -469,6 +469,15 @@
   <si>
     <t>Treff zur Guten Laune 20.8.</t>
   </si>
+  <si>
+    <t>Stadt Wabu  Miete Sep 2019</t>
+  </si>
+  <si>
+    <t>Telekom Sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auslagen W.Schwarz </t>
+  </si>
 </sst>
 </file>
 
@@ -829,147 +838,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="254">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="226">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3290,7 +3159,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
+      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5366,11 +5235,11 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>38.320000000000618</v>
+        <v>9.3500000000003638</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>16026.840000000011</v>
+        <v>15793.81000000001</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -5408,7 +5277,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>19111.540000000012</v>
+        <v>18849.540000000012</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -6206,427 +6075,427 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D63:G104 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62">
-    <cfRule type="cellIs" dxfId="234" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="233" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="232" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="231" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="230" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="229" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="226" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="223" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="222" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="221" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="220" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="219" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="218" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="217" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="216" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="215" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="214" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="213" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="212" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="211" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="210" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="209" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="208" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="207" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="206" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="205" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="204" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="203" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="202" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="201" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="200" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="199" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="198" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="197" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="196" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="195" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="194" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="193" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="192" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="191" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="190" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="189" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="188" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="187" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="186" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="185" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="184" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="183" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="182" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="181" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="180" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="179" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="178" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="177" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="176" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="175" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="174" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="173" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="172" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="171" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="170" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="169" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="168" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="167" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="166" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="165" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="164" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="163" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="162" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="161" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="160" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="159" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="158" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="157" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="156" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="155" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="154" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="153" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="152" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="151" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="150" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="149" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="148" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="147" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="146" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6661,8 +6530,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
+      <pane ySplit="2" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16490,12 +16359,22 @@
     </row>
     <row r="91" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="48"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="42"/>
+      <c r="B91" s="15">
+        <v>43710</v>
+      </c>
+      <c r="C91" s="62">
+        <v>89</v>
+      </c>
+      <c r="D91" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="E91" s="42" t="s">
+        <v>21</v>
+      </c>
       <c r="F91" s="20"/>
-      <c r="G91" s="21"/>
+      <c r="G91" s="21">
+        <v>-12</v>
+      </c>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="22"/>
@@ -16739,12 +16618,22 @@
     </row>
     <row r="92" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="48"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="19"/>
+      <c r="B92" s="15">
+        <v>43711</v>
+      </c>
+      <c r="C92" s="62">
+        <v>90</v>
+      </c>
+      <c r="D92" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="F92" s="20"/>
-      <c r="G92" s="21"/>
+      <c r="G92" s="21">
+        <v>-160</v>
+      </c>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
       <c r="J92" s="22"/>
@@ -16988,12 +16877,22 @@
     </row>
     <row r="93" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="48"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="19"/>
+      <c r="B93" s="15">
+        <v>43711</v>
+      </c>
+      <c r="C93" s="62">
+        <v>91</v>
+      </c>
+      <c r="D93" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="F93" s="20"/>
-      <c r="G93" s="21"/>
+      <c r="G93" s="21">
+        <v>-42</v>
+      </c>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
       <c r="J93" s="22"/>
@@ -17237,12 +17136,22 @@
     </row>
     <row r="94" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="48"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="19"/>
+      <c r="B94" s="15">
+        <v>43725</v>
+      </c>
+      <c r="C94" s="62">
+        <v>92</v>
+      </c>
+      <c r="D94" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F94" s="20"/>
-      <c r="G94" s="21"/>
+      <c r="G94" s="21">
+        <v>-19.03</v>
+      </c>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
       <c r="J94" s="22"/>
@@ -17486,11 +17395,21 @@
     </row>
     <row r="95" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="48"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="62"/>
-      <c r="D95" s="57"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="20"/>
+      <c r="B95" s="15">
+        <v>43729</v>
+      </c>
+      <c r="C95" s="62">
+        <v>93</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E95" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="20">
+        <v>-28.97</v>
+      </c>
       <c r="G95" s="21"/>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
@@ -17737,8 +17656,8 @@
       <c r="A96" s="48"/>
       <c r="B96" s="15"/>
       <c r="C96" s="62"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="19"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="55"/>
       <c r="F96" s="20"/>
       <c r="G96" s="21"/>
       <c r="H96" s="21"/>
@@ -36164,11 +36083,11 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-5791.63</v>
+        <v>-5820.6</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-3789.4599999999996</v>
+        <v>-4022.49</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -38100,662 +38019,652 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 A55:A83">
-    <cfRule type="cellIs" dxfId="145" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="195" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="144" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="137" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="131" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="130" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="129" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="128" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="127" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="126" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="125" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="124" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="123" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="122" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107:D107">
+    <cfRule type="cellIs" dxfId="121" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="120" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="119" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="118" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="117" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="116" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="115" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="114" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="113" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="cellIs" dxfId="112" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="111" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="110" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:D116">
+    <cfRule type="cellIs" dxfId="109" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="108" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117:D117">
+    <cfRule type="cellIs" dxfId="107" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="106" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="105" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:C120">
+    <cfRule type="cellIs" dxfId="104" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="103" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:C122">
+    <cfRule type="cellIs" dxfId="102" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:C121">
+    <cfRule type="cellIs" dxfId="101" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="100" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="99" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="98" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="97" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="96" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="95" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="94" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="93" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="92" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="91" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="90" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="89" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="88" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="87" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="86" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="85" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="84" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="83" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="82" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="81" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="80" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="79" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="78" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="77" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="76" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="75" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="74" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="73" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="72" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="71" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="70" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="69" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="68" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="67" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="66" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="65" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="64" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="63" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="62" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="61" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="60" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="59" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="58" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="57" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="56" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="55" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="54" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="53" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="52" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="51" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="50" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="49" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="48" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="47" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="44" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="42" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="36" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="31" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="30" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="29" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="28" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="26" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="25" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="24" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="22" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="17" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="136" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="129" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="128" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="127" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="126" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="125" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="124" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="123" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="122" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="121" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="120" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="119" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="118" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="117" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="116" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="115" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="114" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="113" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="112" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="111" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="110" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="109" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="108" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="107" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="106" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="105" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="104" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="103" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="102" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="101" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="100" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="99" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="98" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="97" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="96" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="95" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="94" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="93" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="92" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="91" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="90" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="89" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="88" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="87" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="86" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="85" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="84" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="83" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="82" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="81" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="80" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="79" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="78" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="77" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="76" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="75" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="74" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="73" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="72" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="71" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="70" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="69" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="68" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="66" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="65" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="64" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="62" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="61" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="60" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="58" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="57" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="56" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="55" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="54" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="53" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="52" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="50" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="49" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="48" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="47" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="46" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="39" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="29" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="24" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="19" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="15" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E3:E7 E9:E42 E44:E73 E75:E86 E90:E120">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E3:E7 E9:E42 E44:E73 E75:E86 E97:E120 E90:E94">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87:E89">

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="153">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -478,6 +478,12 @@
   <si>
     <t xml:space="preserve">Auslagen W.Schwarz </t>
   </si>
+  <si>
+    <t>Auszahlung in Barkasse</t>
+  </si>
+  <si>
+    <t>Stadt Wabu  Miete Okt 2019</t>
+  </si>
 </sst>
 </file>
 
@@ -838,7 +844,67 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="226">
+  <dxfs count="238">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3158,8 +3224,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
+      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4623,12 +4689,22 @@
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="18"/>
+      <c r="A62" s="15">
+        <v>43734</v>
+      </c>
+      <c r="B62" s="62">
+        <v>59</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="20">
+        <v>100</v>
+      </c>
+      <c r="F62" s="21"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="19"/>
@@ -4636,11 +4712,21 @@
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="17"/>
+      <c r="A63" s="15">
+        <v>43742</v>
+      </c>
+      <c r="B63" s="62">
+        <v>60</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="20">
+        <v>2000</v>
+      </c>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
@@ -4649,11 +4735,21 @@
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="17"/>
+      <c r="A64" s="15">
+        <v>43742</v>
+      </c>
+      <c r="B64" s="62">
+        <v>61</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="20">
+        <v>900</v>
+      </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
@@ -4662,11 +4758,21 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="17"/>
+      <c r="A65" s="15">
+        <v>43742</v>
+      </c>
+      <c r="B65" s="62">
+        <v>62</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="20">
+        <v>300</v>
+      </c>
       <c r="F65" s="60"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
@@ -5192,7 +5298,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>5829.9500000000007</v>
+        <v>9129.9500000000007</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
@@ -5235,11 +5341,11 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>9.3500000000003638</v>
+        <v>3309.3500000000004</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>15793.81000000001</v>
+        <v>12248.81000000001</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -5277,7 +5383,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>18849.540000000012</v>
+        <v>18604.540000000012</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -6074,440 +6180,458 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D63:G104 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62">
-    <cfRule type="cellIs" dxfId="225" priority="132" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G104 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65">
+    <cfRule type="cellIs" dxfId="237" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="224" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="223" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="222" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="221" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="220" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="219" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:F62">
-    <cfRule type="cellIs" dxfId="218" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="217" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="216" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="215" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="214" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="213" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="212" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="211" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="210" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="209" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="208" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="207" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="206" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="205" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="204" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="203" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="202" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="201" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="200" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="199" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="198" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="197" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="196" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="195" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="194" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="193" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="192" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="191" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="190" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="189" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="188" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="187" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="186" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="185" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="184" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="183" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="182" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="181" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="180" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="179" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="178" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="177" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="176" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="175" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="174" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="173" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="172" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="171" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="170" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="169" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="168" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="167" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="166" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="165" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="164" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="163" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="162" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="161" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="160" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="159" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="158" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="157" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="156" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="155" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="154" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="153" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="152" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="151" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="150" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="149" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="148" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="147" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="146" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="145" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="144" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="143" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="142" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="141" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="21" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D4:D6 D11:D13 D15:D20 D22:D24 D53 D55 D57:D61">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D7:D10 D3 D25:D31 D14 D45 D41 D62:D104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D7:D10 D3 D25:D31 D14 D45 D41 D66:D104">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56">
       <formula1>$K$1:$K$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D65">
+      <formula1>$M$1:$M$19</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -6529,9 +6653,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17654,12 +17778,22 @@
     </row>
     <row r="96" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="48"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="55"/>
+      <c r="B96" s="15">
+        <v>43734</v>
+      </c>
+      <c r="C96" s="62">
+        <v>94</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="F96" s="20"/>
-      <c r="G96" s="21"/>
+      <c r="G96" s="21">
+        <v>-100</v>
+      </c>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
       <c r="J96" s="22"/>
@@ -17903,12 +18037,22 @@
     </row>
     <row r="97" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="48"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="57"/>
-      <c r="E97" s="19"/>
+      <c r="B97" s="15">
+        <v>43738</v>
+      </c>
+      <c r="C97" s="62">
+        <v>95</v>
+      </c>
+      <c r="D97" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="E97" s="42" t="s">
+        <v>22</v>
+      </c>
       <c r="F97" s="20"/>
-      <c r="G97" s="21"/>
+      <c r="G97" s="21">
+        <v>-31</v>
+      </c>
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
       <c r="J97" s="22"/>
@@ -18152,12 +18296,22 @@
     </row>
     <row r="98" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="48"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="62"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="19"/>
+      <c r="B98" s="15">
+        <v>43739</v>
+      </c>
+      <c r="C98" s="62">
+        <v>96</v>
+      </c>
+      <c r="D98" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="F98" s="20"/>
-      <c r="G98" s="21"/>
+      <c r="G98" s="21">
+        <v>-160</v>
+      </c>
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
       <c r="J98" s="22"/>
@@ -18401,12 +18555,22 @@
     </row>
     <row r="99" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="48"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="19"/>
+      <c r="B99" s="15">
+        <v>43739</v>
+      </c>
+      <c r="C99" s="62">
+        <v>97</v>
+      </c>
+      <c r="D99" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="F99" s="20"/>
-      <c r="G99" s="21"/>
+      <c r="G99" s="21">
+        <v>-42</v>
+      </c>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
       <c r="J99" s="22"/>
@@ -18650,12 +18814,22 @@
     </row>
     <row r="100" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="48"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="19"/>
+      <c r="B100" s="15">
+        <v>43739</v>
+      </c>
+      <c r="C100" s="62">
+        <v>98</v>
+      </c>
+      <c r="D100" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E100" s="42" t="s">
+        <v>21</v>
+      </c>
       <c r="F100" s="20"/>
-      <c r="G100" s="21"/>
+      <c r="G100" s="21">
+        <v>-12</v>
+      </c>
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
       <c r="J100" s="22"/>
@@ -18899,12 +19073,22 @@
     </row>
     <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="48"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="19"/>
+      <c r="B101" s="15">
+        <v>43742</v>
+      </c>
+      <c r="C101" s="62">
+        <v>99</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="F101" s="20"/>
-      <c r="G101" s="21"/>
+      <c r="G101" s="21">
+        <v>-2000</v>
+      </c>
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
       <c r="J101" s="22"/>
@@ -19148,12 +19332,22 @@
     </row>
     <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="48"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="19"/>
+      <c r="B102" s="15">
+        <v>43742</v>
+      </c>
+      <c r="C102" s="62">
+        <v>100</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="F102" s="20"/>
-      <c r="G102" s="21"/>
+      <c r="G102" s="21">
+        <v>-900</v>
+      </c>
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
       <c r="J102" s="22"/>
@@ -19397,12 +19591,22 @@
     </row>
     <row r="103" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="48"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="19"/>
+      <c r="B103" s="15">
+        <v>43742</v>
+      </c>
+      <c r="C103" s="62">
+        <v>101</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="F103" s="20"/>
-      <c r="G103" s="21"/>
+      <c r="G103" s="21">
+        <v>-300</v>
+      </c>
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
       <c r="J103" s="22"/>
@@ -36087,7 +36291,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-4022.49</v>
+        <v>-7567.49</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -38019,652 +38223,657 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 A55:A83">
-    <cfRule type="cellIs" dxfId="140" priority="195" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="203" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="139" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="138" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="142" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="141" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="140" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107:D107">
+    <cfRule type="cellIs" dxfId="139" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="138" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="137" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="136" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="135" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="134" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="133" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="132" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="131" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="cellIs" dxfId="130" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="129" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="128" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:D116">
+    <cfRule type="cellIs" dxfId="127" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="126" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117:D117">
+    <cfRule type="cellIs" dxfId="125" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="124" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="123" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:C120">
+    <cfRule type="cellIs" dxfId="122" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="121" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:C122">
+    <cfRule type="cellIs" dxfId="120" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:C121">
+    <cfRule type="cellIs" dxfId="119" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="118" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="117" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="116" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="115" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="114" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="113" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="112" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="111" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="110" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="109" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="108" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="107" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="106" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="105" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="104" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="103" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="102" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="101" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="100" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="99" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="98" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="97" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="96" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="95" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="94" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="93" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="92" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="91" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="90" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="89" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="88" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="87" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="86" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="85" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="84" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="83" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="82" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="81" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="80" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="79" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="78" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="77" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="76" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="75" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="74" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="73" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="72" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="71" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="70" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="69" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="68" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="67" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="66" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="65" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="64" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="63" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="62" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="61" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="60" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="59" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="58" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="57" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="56" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="55" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="54" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="53" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="52" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="51" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="50" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="49" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="48" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="47" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="46" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="45" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="44" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="43" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="42" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="41" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="40" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="39" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="38" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="37" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="36" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="35" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="33" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="32" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="27" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="26" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="25" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="24" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="23" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="131" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="130" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="129" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="128" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="127" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="126" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="125" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="124" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="123" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="122" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="121" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="120" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="119" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="118" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="117" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="116" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="115" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="114" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="113" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="112" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="111" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="110" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="109" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="108" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="107" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="106" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="105" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="104" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="103" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="102" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="101" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="100" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="99" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="98" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="97" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="96" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="95" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="94" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="93" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="92" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="91" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="90" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="89" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="88" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="87" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="86" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="85" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="84" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="83" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="82" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="81" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="80" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="79" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="78" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="77" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="76" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="75" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="74" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="73" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="72" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="71" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="70" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="69" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="68" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="67" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="66" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="65" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="64" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="63" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="62" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="61" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="60" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="59" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="58" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="57" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="56" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="55" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="54" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="53" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="52" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="51" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="50" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="49" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="48" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="47" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="44" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="42" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="36" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="31" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="30" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="29" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="28" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="26" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="25" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="24" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="22" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="17" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E3:E7 E9:E42 E44:E73 E75:E86 E97:E120 E90:E94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E3:E7 E9:E42 E44:E73 E75:E86 E90:E94 E96:E120">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87:E89">

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="164">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -484,6 +484,39 @@
   <si>
     <t>Stadt Wabu  Miete Okt 2019</t>
   </si>
+  <si>
+    <t xml:space="preserve">Kartenvorverkauf </t>
+  </si>
+  <si>
+    <t>Würstle &amp; Co.</t>
+  </si>
+  <si>
+    <t>Musik Freitag</t>
+  </si>
+  <si>
+    <t>Rundfunkgeb. 09/2019-11/2019</t>
+  </si>
+  <si>
+    <t>Verpfl Musiker Samstag</t>
+  </si>
+  <si>
+    <t>Kosten Festakt Freitag Musikerheim</t>
+  </si>
+  <si>
+    <t>Spende Jubiläum von OV Gomaringen</t>
+  </si>
+  <si>
+    <t>Kosten Shanty Chor</t>
+  </si>
+  <si>
+    <t>Kosten Donnerbischl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartenverkauf Abendkasse </t>
+  </si>
+  <si>
+    <t>Spenden vom Festakt</t>
+  </si>
 </sst>
 </file>
 
@@ -844,7 +877,47 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="238">
+  <dxfs count="246">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3224,8 +3297,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4781,11 +4854,21 @@
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="17"/>
+      <c r="A66" s="15">
+        <v>43749</v>
+      </c>
+      <c r="B66" s="16">
+        <v>63</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="17">
+        <v>2175</v>
+      </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -4794,12 +4877,22 @@
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="18"/>
+      <c r="A67" s="15">
+        <v>43749</v>
+      </c>
+      <c r="B67" s="63">
+        <v>64</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="20"/>
+      <c r="F67" s="18">
+        <v>1860</v>
+      </c>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="19"/>
@@ -4807,11 +4900,21 @@
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="17"/>
+      <c r="A68" s="15">
+        <v>43749</v>
+      </c>
+      <c r="B68" s="16">
+        <v>65</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="17">
+        <v>100</v>
+      </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
@@ -4820,11 +4923,21 @@
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="17"/>
+      <c r="A69" s="15">
+        <v>43750</v>
+      </c>
+      <c r="B69" s="16">
+        <v>66</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="17">
+        <v>497</v>
+      </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -4833,11 +4946,21 @@
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="17"/>
+      <c r="A70" s="15">
+        <v>43749</v>
+      </c>
+      <c r="B70" s="16">
+        <v>67</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="17">
+        <v>24.46</v>
+      </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
@@ -5298,11 +5421,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>9129.9500000000007</v>
+        <v>11926.41</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>19816.30000000001</v>
+        <v>21676.30000000001</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -5341,11 +5464,11 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>3309.3500000000004</v>
+        <v>314.3799999999992</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>12248.81000000001</v>
+        <v>13672.820000000011</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -5383,7 +5506,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>18604.540000000012</v>
+        <v>17033.580000000009</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -6180,451 +6303,476 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G104 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65">
-    <cfRule type="cellIs" dxfId="237" priority="136" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 D71:G104 F69:G70">
+    <cfRule type="cellIs" dxfId="245" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="236" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="235" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="234" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="233" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="232" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="231" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="229" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="228" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="227" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="226" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="225" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="224" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="223" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="222" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="221" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="220" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="219" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="218" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="217" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="216" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="215" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="214" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="213" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="212" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="211" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="210" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="209" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="208" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="207" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="206" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="205" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="204" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="203" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="202" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="201" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="200" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="199" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="198" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="197" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="196" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="195" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="194" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="193" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="192" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="191" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="190" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="189" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="188" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="187" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="186" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="185" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="184" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="183" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="182" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="181" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="180" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="179" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="178" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="177" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="176" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="175" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="174" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="173" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="172" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="171" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="170" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="169" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="168" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="167" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="166" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="165" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="164" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="163" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="162" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="161" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="160" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="159" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="158" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="157" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="156" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="155" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="154" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="153" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="21" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="160" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="159" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="cellIs" dxfId="158" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="23" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:E69">
     <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="E70">
     <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D4:D6 D11:D13 D15:D20 D22:D24 D53 D55 D57:D61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D4:D6 D11:D13 D15:D20 D22:D24 D53 D55 D57:D61 D67">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D7:D10 D3 D25:D31 D14 D45 D41 D66:D104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D7:D10 D3 D25:D31 D14 D45 D41 D66 D68:D104">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56">
@@ -6654,8 +6802,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
+      <pane ySplit="2" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19850,11 +19998,21 @@
     </row>
     <row r="104" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="48"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="20"/>
+      <c r="B104" s="15">
+        <v>43749</v>
+      </c>
+      <c r="C104" s="62">
+        <v>102</v>
+      </c>
+      <c r="D104" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F104" s="20">
+        <v>-149.43</v>
+      </c>
       <c r="G104" s="21"/>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
@@ -20099,11 +20257,21 @@
     </row>
     <row r="105" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="48"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="62"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="20"/>
+      <c r="B105" s="15">
+        <v>43749</v>
+      </c>
+      <c r="C105" s="62">
+        <v>103</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F105" s="20">
+        <v>-210</v>
+      </c>
       <c r="G105" s="21"/>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
@@ -20348,11 +20516,21 @@
     </row>
     <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="48"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="20"/>
+      <c r="B106" s="15">
+        <v>43749</v>
+      </c>
+      <c r="C106" s="63">
+        <v>104</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="20">
+        <v>-1860</v>
+      </c>
       <c r="G106" s="21"/>
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
@@ -20597,12 +20775,22 @@
     </row>
     <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="48"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="62"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="19"/>
+      <c r="B107" s="44">
+        <v>43753</v>
+      </c>
+      <c r="C107" s="62">
+        <v>105</v>
+      </c>
+      <c r="D107" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F107" s="20"/>
-      <c r="G107" s="21"/>
+      <c r="G107" s="21">
+        <v>-17.489999999999998</v>
+      </c>
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
       <c r="J107" s="22"/>
@@ -20846,11 +21034,21 @@
     </row>
     <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="48"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="20"/>
+      <c r="B108" s="44">
+        <v>43753</v>
+      </c>
+      <c r="C108" s="62">
+        <v>106</v>
+      </c>
+      <c r="D108" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F108" s="20">
+        <v>-972</v>
+      </c>
       <c r="G108" s="21"/>
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
@@ -21095,12 +21293,22 @@
     </row>
     <row r="109" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="48"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="62"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="19"/>
+      <c r="B109" s="44">
+        <v>43753</v>
+      </c>
+      <c r="C109" s="62">
+        <v>107</v>
+      </c>
+      <c r="D109" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>123</v>
+      </c>
       <c r="F109" s="20"/>
-      <c r="G109" s="21"/>
+      <c r="G109" s="21">
+        <v>-418.5</v>
+      </c>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
       <c r="J109" s="22"/>
@@ -21344,11 +21552,21 @@
     </row>
     <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="48"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="20"/>
+      <c r="B110" s="15">
+        <v>43746</v>
+      </c>
+      <c r="C110" s="62">
+        <v>108</v>
+      </c>
+      <c r="D110" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F110" s="20">
+        <v>-1100</v>
+      </c>
       <c r="G110" s="21"/>
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
@@ -21593,11 +21811,21 @@
     </row>
     <row r="111" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="48"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="62"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="20"/>
+      <c r="B111" s="15">
+        <v>43750</v>
+      </c>
+      <c r="C111" s="62">
+        <v>109</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F111" s="20">
+        <v>-1500</v>
+      </c>
       <c r="G111" s="21"/>
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
@@ -36287,11 +36515,11 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-5820.6</v>
+        <v>-11612.03</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-7567.49</v>
+        <v>-8003.48</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -38222,661 +38450,656 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 B109 A3:A53 D119:E119 A85:A235 C106:D106 C109:C110 D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 A55:A83">
-    <cfRule type="cellIs" dxfId="152" priority="203" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A3:A53 D119:E119 A85:A235 C110:D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 A55:A83">
+    <cfRule type="cellIs" dxfId="157" priority="211" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="151" priority="193" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="150" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="142" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="144" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="143" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="cellIs" dxfId="142" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="141" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="140" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:D116">
+    <cfRule type="cellIs" dxfId="139" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="138" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117:D117">
+    <cfRule type="cellIs" dxfId="137" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="136" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="135" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:C120">
+    <cfRule type="cellIs" dxfId="134" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="133" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:C122">
+    <cfRule type="cellIs" dxfId="132" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:C121">
+    <cfRule type="cellIs" dxfId="131" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="130" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="129" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="128" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="127" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="126" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="125" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="124" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="123" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="122" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="121" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="120" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="119" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="118" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="117" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="116" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="115" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="114" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="113" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="112" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="111" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="110" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="109" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="108" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="107" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="106" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="105" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="104" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="103" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="102" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="101" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="100" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="99" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="98" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="97" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="96" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="95" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="94" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="93" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="92" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="91" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="90" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="89" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="88" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="87" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="86" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="85" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="84" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="83" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="82" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="81" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="80" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="79" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="78" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="77" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="76" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="75" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="74" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="73" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="72" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="71" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="70" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="69" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="68" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="67" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="66" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="65" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="64" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="63" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="62" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="61" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="60" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="59" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="58" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="57" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="56" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="55" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="54" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="53" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="52" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="51" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="50" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="49" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="48" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="47" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="46" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="45" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="44" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="43" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="42" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="41" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="40" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="39" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="38" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="37" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="36" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="35" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="34" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="33" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="32" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="31" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="30" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="29" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="28" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="141" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="140" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107:D107">
-    <cfRule type="cellIs" dxfId="139" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="138" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="137" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="136" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="135" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="134" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="133" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="132" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="131" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="130" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="129" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="128" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="127" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="126" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="125" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="124" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="123" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="122" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="121" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="120" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="119" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="118" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="117" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="116" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="115" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="114" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="113" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="112" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="111" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="110" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="109" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="108" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="107" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="106" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="105" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="104" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="103" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="102" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="101" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="100" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="99" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="98" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="97" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="96" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="95" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="94" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="93" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="92" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="91" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="90" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="89" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="88" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="87" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="86" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="85" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="84" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="83" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="82" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="81" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="80" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="79" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="78" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="77" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="76" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="75" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="74" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="73" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="72" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="71" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="70" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="69" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="68" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="67" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="66" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="65" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="64" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="63" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="62" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="61" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="60" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="59" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="58" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="57" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="56" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="55" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="54" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="53" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="52" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="51" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="50" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="49" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="48" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="47" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="46" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="45" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="44" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="43" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="42" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="41" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="40" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="39" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="38" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="37" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="36" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="35" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="33" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="32" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="27" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="26" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="25" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="24" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="23" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
     <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E3:E7 E9:E42 E44:E73 E75:E86 E90:E94 E96:E120">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E3:E7 E9:E42 E44:E73 E75:E86 E90:E94 E96:E105 E107:E120">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87:E89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87:E89 E106">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="174">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -517,6 +517,36 @@
   <si>
     <t>Spenden vom Festakt</t>
   </si>
+  <si>
+    <t>Treff zur Guten Laune 3.9.</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 1.10</t>
+  </si>
+  <si>
+    <t>Treff zur Guten Laune 1.10.</t>
+  </si>
+  <si>
+    <t>Einnahmen Hocketse</t>
+  </si>
+  <si>
+    <t>Ausgaben Hocketse</t>
+  </si>
+  <si>
+    <t>Spenden vom H.Neff</t>
+  </si>
+  <si>
+    <t>Häusle Putzen Helferessen 25.8.</t>
+  </si>
+  <si>
+    <t>H.Klie Trauerkarte</t>
+  </si>
+  <si>
+    <t>I.Pfurtscheller 80er Geb.</t>
+  </si>
+  <si>
+    <t>Spenden Jubiläum Fa. Glasbrenner</t>
+  </si>
 </sst>
 </file>
 
@@ -877,7 +907,67 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="246">
+  <dxfs count="258">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3297,8 +3387,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4969,11 +5059,21 @@
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="17"/>
+      <c r="A71" s="15">
+        <v>43754</v>
+      </c>
+      <c r="B71" s="16">
+        <v>68</v>
+      </c>
+      <c r="C71" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="17">
+        <v>192.39</v>
+      </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
@@ -4982,11 +5082,21 @@
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="17"/>
+      <c r="A72" s="15">
+        <v>43754</v>
+      </c>
+      <c r="B72" s="16">
+        <v>69</v>
+      </c>
+      <c r="C72" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="17">
+        <v>198.34</v>
+      </c>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -4995,11 +5105,21 @@
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="17"/>
+      <c r="A73" s="15">
+        <v>43754</v>
+      </c>
+      <c r="B73" s="16">
+        <v>70</v>
+      </c>
+      <c r="C73" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E73" s="17">
+        <v>1107.8</v>
+      </c>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
@@ -5008,11 +5128,21 @@
       <c r="K73" s="2"/>
     </row>
     <row r="74" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="17"/>
+      <c r="A74" s="15">
+        <v>43751</v>
+      </c>
+      <c r="B74" s="16">
+        <v>71</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="17">
+        <v>70</v>
+      </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
@@ -5021,11 +5151,21 @@
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="51"/>
+      <c r="A75" s="15">
+        <v>43754</v>
+      </c>
+      <c r="B75" s="16">
+        <v>72</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="17">
+        <v>70</v>
+      </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
@@ -5421,7 +5561,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>11926.41</v>
+        <v>13564.939999999999</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
@@ -5464,7 +5604,7 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>314.3799999999992</v>
+        <v>1564.3799999999992</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
@@ -5506,7 +5646,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>17033.580000000009</v>
+        <v>18283.580000000013</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -6303,476 +6443,526 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 D71:G104 F69:G70">
-    <cfRule type="cellIs" dxfId="245" priority="141" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 D76:G104 F69:G75">
+    <cfRule type="cellIs" dxfId="257" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="244" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="243" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="242" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="241" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="240" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="239" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="238" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="237" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="236" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="235" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="234" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="233" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="232" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="231" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="230" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="229" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="228" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="227" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="226" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="225" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="224" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="223" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="222" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="221" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="220" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="219" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="218" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="217" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="216" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="215" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="214" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="213" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="212" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="211" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="210" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="209" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="208" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="207" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="206" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="205" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="204" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="203" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="202" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="201" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="200" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="199" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="198" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="197" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="196" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="195" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="194" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="193" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="192" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="191" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="190" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="189" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="188" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="187" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="186" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="185" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="184" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="183" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="182" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="181" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="180" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="179" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="178" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="177" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="176" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="175" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="174" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="173" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="172" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="171" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="170" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="169" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="168" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="167" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="166" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="165" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="164" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="163" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="162" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="161" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="160" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="159" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="158" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="23" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="166" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="165" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="35" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="33" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="27" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="25" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="23" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
     <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D75">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D4:D6 D11:D13 D15:D20 D22:D24 D53 D55 D57:D61 D67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D4:D6 D11:D13 D15:D20 D22:D24 D53 D55 D57:D61 D67 D71:D72">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D7:D10 D3 D25:D31 D14 D45 D41 D66 D68:D104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D7:D10 D3 D25:D31 D14 D45 D41 D66 D68:D70 D73:D104">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56">
@@ -6802,8 +6992,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22070,11 +22260,21 @@
     </row>
     <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="48"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="62"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="20"/>
+      <c r="B112" s="15">
+        <v>43754</v>
+      </c>
+      <c r="C112" s="16">
+        <v>110</v>
+      </c>
+      <c r="D112" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="E112" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" s="20">
+        <v>-45.09</v>
+      </c>
       <c r="G112" s="21"/>
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
@@ -22319,11 +22519,21 @@
     </row>
     <row r="113" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="48"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="62"/>
-      <c r="D113" s="57"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="20"/>
+      <c r="B113" s="15">
+        <v>43754</v>
+      </c>
+      <c r="C113" s="16">
+        <v>111</v>
+      </c>
+      <c r="D113" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E113" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="20">
+        <v>-38.74</v>
+      </c>
       <c r="G113" s="21"/>
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
@@ -22568,11 +22778,21 @@
     </row>
     <row r="114" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="48"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="62"/>
-      <c r="D114" s="57"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="20"/>
+      <c r="B114" s="15">
+        <v>43754</v>
+      </c>
+      <c r="C114" s="16">
+        <v>112</v>
+      </c>
+      <c r="D114" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F114" s="20">
+        <v>-182.8</v>
+      </c>
       <c r="G114" s="21"/>
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
@@ -22817,11 +23037,21 @@
     </row>
     <row r="115" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="48"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="62"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="20"/>
+      <c r="B115" s="15">
+        <v>43754</v>
+      </c>
+      <c r="C115" s="62">
+        <v>113</v>
+      </c>
+      <c r="D115" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F115" s="20">
+        <v>-71.900000000000006</v>
+      </c>
       <c r="G115" s="21"/>
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
@@ -23066,11 +23296,21 @@
     </row>
     <row r="116" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="48"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="20"/>
+      <c r="B116" s="44">
+        <v>43700</v>
+      </c>
+      <c r="C116" s="62">
+        <v>114</v>
+      </c>
+      <c r="D116" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="E116" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" s="20">
+        <v>-25</v>
+      </c>
       <c r="G116" s="21"/>
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
@@ -23315,11 +23555,21 @@
     </row>
     <row r="117" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="48"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="20"/>
+      <c r="B117" s="44">
+        <v>43734</v>
+      </c>
+      <c r="C117" s="62">
+        <v>115</v>
+      </c>
+      <c r="D117" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="E117" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" s="20">
+        <v>-25</v>
+      </c>
       <c r="G117" s="21"/>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
@@ -36515,7 +36765,7 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-11612.03</v>
+        <v>-12000.56</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
@@ -38450,657 +38700,645 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A3:A53 D119:E119 A85:A235 C110:D110 C113 B115:D115 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 A55:A83">
-    <cfRule type="cellIs" dxfId="157" priority="211" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A3:A53 D119:E119 A85:A235 C110:D110 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 A55:A83">
+    <cfRule type="cellIs" dxfId="164" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="156" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="208" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="155" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="154" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="151" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:C120">
+    <cfRule type="cellIs" dxfId="150" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="149" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:C122">
+    <cfRule type="cellIs" dxfId="148" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:C121">
+    <cfRule type="cellIs" dxfId="147" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="146" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="145" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="144" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="143" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="142" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="141" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="140" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="139" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="138" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="137" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="136" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="135" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="134" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="133" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="132" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="131" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="130" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="129" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="128" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="127" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="126" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="125" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="124" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="123" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="122" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="121" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="120" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="119" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="118" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="117" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="116" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="115" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="114" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="113" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="112" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="111" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="110" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="109" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="108" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="107" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="106" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="105" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="104" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="103" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="102" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="101" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="100" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="99" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="98" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="97" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="96" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="95" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="94" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="93" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="92" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="91" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="90" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="89" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="88" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="87" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="86" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="85" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="84" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="83" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="82" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="81" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="80" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="79" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="78" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="77" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="76" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="75" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="74" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="73" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="72" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="71" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="70" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="69" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="68" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="67" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="66" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="65" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="64" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="63" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="62" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="61" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="60" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="59" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="58" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="57" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="56" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="55" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="54" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="53" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="52" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="51" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="50" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="49" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="48" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="47" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="46" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="45" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="44" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="43" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="42" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="41" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="40" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="39" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="38" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="37" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="36" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="144" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="143" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="142" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="141" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="140" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B116:D116">
-    <cfRule type="cellIs" dxfId="139" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="138" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B117:D117">
-    <cfRule type="cellIs" dxfId="137" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="136" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="135" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="134" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="133" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="132" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="131" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="130" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="129" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="128" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="127" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="126" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="125" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="124" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="123" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="122" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="121" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="120" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="119" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="118" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="117" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="116" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="115" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="114" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="113" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="112" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="111" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="110" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="109" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="108" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="107" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="106" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="105" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="104" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="103" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="102" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="101" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="100" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="99" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="98" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="97" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="96" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="95" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="94" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="93" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="92" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="91" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="90" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="89" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="88" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="87" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="86" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="85" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="84" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="83" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="82" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="81" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="80" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="79" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="78" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="77" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="76" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="75" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="74" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="73" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="72" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="71" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="70" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="69" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="68" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="67" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="66" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="65" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="64" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="63" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="62" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="61" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="60" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="59" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="58" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="57" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="56" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="55" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="54" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="53" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="52" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="51" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="50" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="49" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="48" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="47" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="46" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="45" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="44" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="43" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="42" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="41" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="40" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="39" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="38" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="37" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="36" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="35" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="34" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="33" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="32" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="31" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="30" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="29" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="28" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="27" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E3:E7 E9:E42 E44:E73 E75:E86 E90:E94 E96:E105 E107:E120">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E169 E3:E7 E9:E42 E44:E73 E75:E86 E90:E94 E96:E105 E107:E111 E115:E120">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87:E89 E106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87:E89 E106 E112:E113">
       <formula1>$M$1:$M$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114">
+      <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/AWO_Einnahmen_Ausgaben_2019.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2019.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="179">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -547,6 +547,21 @@
   <si>
     <t>Spenden Jubiläum Fa. Glasbrenner</t>
   </si>
+  <si>
+    <t>Telekom Okt</t>
+  </si>
+  <si>
+    <t>70er Feier Übernachtung und Catering</t>
+  </si>
+  <si>
+    <t>Spende Jubiläum Kreis BB</t>
+  </si>
+  <si>
+    <t>Spende Ponde, C.Burkhard</t>
+  </si>
+  <si>
+    <t>Mitglbeitrag 2019 M.redemann</t>
+  </si>
 </sst>
 </file>
 
@@ -907,117 +922,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="258">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="236">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3387,8 +3292,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3476,7 +3381,7 @@
         <v>2000.5</v>
       </c>
       <c r="H3" s="13">
-        <v>260.20000000000005</v>
+        <v>259.5</v>
       </c>
       <c r="I3" s="14">
         <v>949.09</v>
@@ -5174,40 +5079,70 @@
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="19"/>
+      <c r="A76" s="15">
+        <v>43755</v>
+      </c>
+      <c r="B76" s="16">
+        <v>73</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E76" s="17"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
+      <c r="H76" s="18">
+        <v>200</v>
+      </c>
       <c r="I76" s="19"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="19"/>
+      <c r="A77" s="15">
+        <v>43711</v>
+      </c>
+      <c r="B77" s="16">
+        <v>74</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E77" s="17"/>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
+      <c r="H77" s="18">
+        <v>250</v>
+      </c>
       <c r="I77" s="19"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="19"/>
+      <c r="A78" s="44">
+        <v>43731</v>
+      </c>
+      <c r="B78" s="16">
+        <v>75</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="E78" s="17"/>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
+      <c r="H78" s="18">
+        <v>30</v>
+      </c>
       <c r="I78" s="19"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -5573,7 +5508,7 @@
       </c>
       <c r="H105" s="28">
         <f>SUM(H3:H104)</f>
-        <v>260.20000000000005</v>
+        <v>739.5</v>
       </c>
       <c r="I105" s="29">
         <f>SUM(I3:I104)</f>
@@ -5604,11 +5539,11 @@
       <c r="D107" s="54"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>1564.3799999999992</v>
+        <v>156.67999999999847</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>13672.820000000011</v>
+        <v>13653.920000000011</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -5616,7 +5551,7 @@
       </c>
       <c r="H107" s="28">
         <f>H105+Ausgaben!I170</f>
-        <v>96.790000000000049</v>
+        <v>576.09</v>
       </c>
       <c r="I107" s="29">
         <f>I105+Ausgaben!K171</f>
@@ -5646,7 +5581,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>18283.580000000013</v>
+        <v>17336.28000000001</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -6444,517 +6379,517 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 D76:G104 F69:G75">
-    <cfRule type="cellIs" dxfId="257" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="256" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="255" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="254" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="253" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="252" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="251" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="250" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="249" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="248" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="247" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="246" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="245" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="244" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="243" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="242" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="241" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="240" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="239" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="238" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="237" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="236" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="235" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="234" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="233" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="232" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="231" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="230" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="229" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="228" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="227" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="226" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="225" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="224" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="223" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="222" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="221" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="220" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="219" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="218" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="217" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="216" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="215" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="214" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="213" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="212" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="211" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="210" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="209" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="208" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="207" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="206" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="205" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="204" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="203" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="202" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="201" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="200" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="199" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="198" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="197" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="196" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="195" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="194" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="193" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="192" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="191" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="190" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="189" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="188" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="187" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="186" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="185" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="184" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="183" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="182" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="181" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="180" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="179" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="178" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="177" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="176" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="175" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="174" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="173" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="172" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="171" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="170" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="169" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="168" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="167" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="166" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="165" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="35" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="33" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="27" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="25" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="23" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6992,8 +6927,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
+      <pane ySplit="2" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23814,11 +23749,22 @@
     </row>
     <row r="118" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="48"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="62"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="19"/>
-      <c r="G118" s="20"/>
+      <c r="B118" s="15">
+        <v>43755</v>
+      </c>
+      <c r="C118" s="62">
+        <v>116</v>
+      </c>
+      <c r="D118" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="20"/>
+      <c r="G118" s="21">
+        <v>-18.899999999999999</v>
+      </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="22"/>
@@ -24062,10 +24008,21 @@
     </row>
     <row r="119" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="48"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="62"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="42"/>
+      <c r="B119" s="15">
+        <v>43755</v>
+      </c>
+      <c r="C119" s="62">
+        <v>117</v>
+      </c>
+      <c r="D119" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F119" s="20">
+        <v>-1407.7</v>
+      </c>
       <c r="G119" s="20"/>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
@@ -36765,11 +36722,11 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-12000.56</v>
+        <v>-13408.26</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-8003.48</v>
+        <v>-8022.3799999999992</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -38700,633 +38657,643 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A3:A53 D119:E119 A85:A235 C110:D110 B118:C119 D118 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 A55:A83">
-    <cfRule type="cellIs" dxfId="164" priority="218" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A3:A53 A85:A235 C110:D110 D124:E171 E120 B123:B236 C123:C235 D123 E11 E17 E26 E42 A55:A83">
+    <cfRule type="cellIs" dxfId="132" priority="221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="163" priority="208" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="211" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="162" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="173" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="161" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:C120">
+    <cfRule type="cellIs" dxfId="127" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="126" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:C122">
+    <cfRule type="cellIs" dxfId="125" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:C121">
+    <cfRule type="cellIs" dxfId="124" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="123" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="122" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="121" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="120" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="119" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="118" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="117" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="116" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="115" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="114" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="113" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="112" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="111" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="110" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="109" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="108" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="107" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="106" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="105" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="104" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="103" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="102" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="101" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="100" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="99" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="98" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="97" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="96" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="95" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="94" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="93" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="92" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="91" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="90" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="89" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="88" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="87" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="86" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="85" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="84" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="83" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="82" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="81" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="80" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="79" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="78" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="77" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="76" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="75" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="74" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="73" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="72" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="71" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="70" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="69" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="68" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="67" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="66" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="65" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="64" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="63" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="62" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="61" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="59" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="58" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="57" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="55" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="54" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="53" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="52" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="51" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="50" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="49" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="48" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="47" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="46" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="45" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="44" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="43" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="42" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="41" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="40" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="39" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="37" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="36" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="34" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="33" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="32" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="30" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="29" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="27" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="26" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="25" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="24" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="23" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="21" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="151" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="150" priority="129" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="149" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:C122">
-    <cfRule type="cellIs" dxfId="148" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="147" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="146" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="145" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="144" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="143" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="142" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="141" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="140" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="139" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="138" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="137" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="136" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="135" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="134" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="133" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="132" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="131" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="130" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="129" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="128" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="127" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="126" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="125" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="124" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="123" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="122" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="121" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="120" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="119" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="118" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="117" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="116" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="115" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="114" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="113" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="112" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="111" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="110" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="109" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="108" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="107" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="106" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="105" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="104" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="103" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="102" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="101" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="100" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="99" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="98" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="97" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="96" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="95" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="94" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="93" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="92" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="91" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="90" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="89" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="88" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="87" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="86" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="85" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="84" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="83" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="82" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormat